--- a/data/treasury/daily_treasury_real_long_term.xlsx
+++ b/data/treasury/daily_treasury_real_long_term.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Date</t>
   </si>
@@ -22,754 +22,757 @@
     <t>LT Real Average (10&gt; Yrs)</t>
   </si>
   <si>
-    <t>2006-12-29</t>
-  </si>
-  <si>
-    <t>2006-12-28</t>
-  </si>
-  <si>
-    <t>2006-12-27</t>
-  </si>
-  <si>
-    <t>2006-12-26</t>
-  </si>
-  <si>
-    <t>2006-12-22</t>
-  </si>
-  <si>
-    <t>2006-12-21</t>
-  </si>
-  <si>
-    <t>2006-12-20</t>
-  </si>
-  <si>
-    <t>2006-12-19</t>
-  </si>
-  <si>
-    <t>2006-12-18</t>
-  </si>
-  <si>
-    <t>2006-12-15</t>
-  </si>
-  <si>
-    <t>2006-12-14</t>
-  </si>
-  <si>
-    <t>2006-12-13</t>
-  </si>
-  <si>
-    <t>2006-12-12</t>
-  </si>
-  <si>
-    <t>2006-12-11</t>
-  </si>
-  <si>
-    <t>2006-12-08</t>
-  </si>
-  <si>
-    <t>2006-12-07</t>
-  </si>
-  <si>
-    <t>2006-12-06</t>
-  </si>
-  <si>
-    <t>2006-12-05</t>
-  </si>
-  <si>
-    <t>2006-12-04</t>
-  </si>
-  <si>
-    <t>2006-12-01</t>
-  </si>
-  <si>
-    <t>2006-11-30</t>
-  </si>
-  <si>
-    <t>2006-11-29</t>
-  </si>
-  <si>
-    <t>2006-11-28</t>
-  </si>
-  <si>
-    <t>2006-11-27</t>
-  </si>
-  <si>
-    <t>2006-11-24</t>
-  </si>
-  <si>
-    <t>2006-11-22</t>
-  </si>
-  <si>
-    <t>2006-11-21</t>
-  </si>
-  <si>
-    <t>2006-11-20</t>
-  </si>
-  <si>
-    <t>2006-11-17</t>
-  </si>
-  <si>
-    <t>2006-11-16</t>
-  </si>
-  <si>
-    <t>2006-11-15</t>
-  </si>
-  <si>
-    <t>2006-11-14</t>
-  </si>
-  <si>
-    <t>2006-11-13</t>
-  </si>
-  <si>
-    <t>2006-11-10</t>
-  </si>
-  <si>
-    <t>2006-11-09</t>
-  </si>
-  <si>
-    <t>2006-11-08</t>
-  </si>
-  <si>
-    <t>2006-11-07</t>
-  </si>
-  <si>
-    <t>2006-11-06</t>
-  </si>
-  <si>
-    <t>2006-11-03</t>
-  </si>
-  <si>
-    <t>2006-11-02</t>
-  </si>
-  <si>
-    <t>2006-11-01</t>
-  </si>
-  <si>
-    <t>2006-10-31</t>
-  </si>
-  <si>
-    <t>2006-10-30</t>
-  </si>
-  <si>
-    <t>2006-10-27</t>
-  </si>
-  <si>
-    <t>2006-10-26</t>
-  </si>
-  <si>
-    <t>2006-10-25</t>
-  </si>
-  <si>
-    <t>2006-10-24</t>
-  </si>
-  <si>
-    <t>2006-10-23</t>
-  </si>
-  <si>
-    <t>2006-10-20</t>
-  </si>
-  <si>
-    <t>2006-10-19</t>
-  </si>
-  <si>
-    <t>2006-10-18</t>
-  </si>
-  <si>
-    <t>2006-10-17</t>
-  </si>
-  <si>
-    <t>2006-10-16</t>
-  </si>
-  <si>
-    <t>2006-10-13</t>
-  </si>
-  <si>
-    <t>2006-10-12</t>
-  </si>
-  <si>
-    <t>2006-10-11</t>
-  </si>
-  <si>
-    <t>2006-10-10</t>
-  </si>
-  <si>
-    <t>2006-10-06</t>
-  </si>
-  <si>
-    <t>2006-10-05</t>
-  </si>
-  <si>
-    <t>2006-10-04</t>
-  </si>
-  <si>
-    <t>2006-10-03</t>
-  </si>
-  <si>
-    <t>2006-10-02</t>
-  </si>
-  <si>
-    <t>2006-09-29</t>
-  </si>
-  <si>
-    <t>2006-09-28</t>
-  </si>
-  <si>
-    <t>2006-09-27</t>
-  </si>
-  <si>
-    <t>2006-09-26</t>
-  </si>
-  <si>
-    <t>2006-09-25</t>
-  </si>
-  <si>
-    <t>2006-09-22</t>
-  </si>
-  <si>
-    <t>2006-09-21</t>
-  </si>
-  <si>
-    <t>2006-09-20</t>
-  </si>
-  <si>
-    <t>2006-09-19</t>
-  </si>
-  <si>
-    <t>2006-09-18</t>
-  </si>
-  <si>
-    <t>2006-09-15</t>
-  </si>
-  <si>
-    <t>2006-09-14</t>
-  </si>
-  <si>
-    <t>2006-09-13</t>
-  </si>
-  <si>
-    <t>2006-09-12</t>
-  </si>
-  <si>
-    <t>2006-09-11</t>
-  </si>
-  <si>
-    <t>2006-09-08</t>
-  </si>
-  <si>
-    <t>2006-09-07</t>
-  </si>
-  <si>
-    <t>2006-09-06</t>
-  </si>
-  <si>
-    <t>2006-09-05</t>
-  </si>
-  <si>
-    <t>2006-09-01</t>
-  </si>
-  <si>
-    <t>2006-08-31</t>
-  </si>
-  <si>
-    <t>2006-08-30</t>
-  </si>
-  <si>
-    <t>2006-08-29</t>
-  </si>
-  <si>
-    <t>2006-08-28</t>
-  </si>
-  <si>
-    <t>2006-08-25</t>
-  </si>
-  <si>
-    <t>2006-08-24</t>
-  </si>
-  <si>
-    <t>2006-08-23</t>
-  </si>
-  <si>
-    <t>2006-08-22</t>
-  </si>
-  <si>
-    <t>2006-08-21</t>
-  </si>
-  <si>
-    <t>2006-08-18</t>
-  </si>
-  <si>
-    <t>2006-08-17</t>
-  </si>
-  <si>
-    <t>2006-08-16</t>
-  </si>
-  <si>
-    <t>2006-08-15</t>
-  </si>
-  <si>
-    <t>2006-08-14</t>
-  </si>
-  <si>
-    <t>2006-08-11</t>
-  </si>
-  <si>
-    <t>2006-08-10</t>
-  </si>
-  <si>
-    <t>2006-08-09</t>
-  </si>
-  <si>
-    <t>2006-08-08</t>
-  </si>
-  <si>
-    <t>2006-08-07</t>
-  </si>
-  <si>
-    <t>2006-08-04</t>
-  </si>
-  <si>
-    <t>2006-08-03</t>
-  </si>
-  <si>
-    <t>2006-08-02</t>
-  </si>
-  <si>
-    <t>2006-08-01</t>
-  </si>
-  <si>
-    <t>2006-07-31</t>
-  </si>
-  <si>
-    <t>2006-07-28</t>
-  </si>
-  <si>
-    <t>2006-07-27</t>
-  </si>
-  <si>
-    <t>2006-07-26</t>
-  </si>
-  <si>
-    <t>2006-07-25</t>
-  </si>
-  <si>
-    <t>2006-07-24</t>
-  </si>
-  <si>
-    <t>2006-07-21</t>
-  </si>
-  <si>
-    <t>2006-07-20</t>
-  </si>
-  <si>
-    <t>2006-07-19</t>
-  </si>
-  <si>
-    <t>2006-07-18</t>
-  </si>
-  <si>
-    <t>2006-07-17</t>
-  </si>
-  <si>
-    <t>2006-07-14</t>
-  </si>
-  <si>
-    <t>2006-07-13</t>
-  </si>
-  <si>
-    <t>2006-07-12</t>
-  </si>
-  <si>
-    <t>2006-07-11</t>
-  </si>
-  <si>
-    <t>2006-07-10</t>
-  </si>
-  <si>
-    <t>2006-07-07</t>
-  </si>
-  <si>
-    <t>2006-07-06</t>
-  </si>
-  <si>
-    <t>2006-07-05</t>
-  </si>
-  <si>
-    <t>2006-07-03</t>
-  </si>
-  <si>
-    <t>2006-06-30</t>
-  </si>
-  <si>
-    <t>2006-06-29</t>
-  </si>
-  <si>
-    <t>2006-06-28</t>
-  </si>
-  <si>
-    <t>2006-06-27</t>
-  </si>
-  <si>
-    <t>2006-06-26</t>
-  </si>
-  <si>
-    <t>2006-06-23</t>
-  </si>
-  <si>
-    <t>2006-06-22</t>
-  </si>
-  <si>
-    <t>2006-06-21</t>
-  </si>
-  <si>
-    <t>2006-06-20</t>
-  </si>
-  <si>
-    <t>2006-06-19</t>
-  </si>
-  <si>
-    <t>2006-06-16</t>
-  </si>
-  <si>
-    <t>2006-06-15</t>
-  </si>
-  <si>
-    <t>2006-06-14</t>
-  </si>
-  <si>
-    <t>2006-06-13</t>
-  </si>
-  <si>
-    <t>2006-06-12</t>
-  </si>
-  <si>
-    <t>2006-06-09</t>
-  </si>
-  <si>
-    <t>2006-06-08</t>
-  </si>
-  <si>
-    <t>2006-06-07</t>
-  </si>
-  <si>
-    <t>2006-06-06</t>
-  </si>
-  <si>
-    <t>2006-06-05</t>
-  </si>
-  <si>
-    <t>2006-06-02</t>
-  </si>
-  <si>
-    <t>2006-06-01</t>
-  </si>
-  <si>
-    <t>2006-05-31</t>
-  </si>
-  <si>
-    <t>2006-05-30</t>
-  </si>
-  <si>
-    <t>2006-05-26</t>
-  </si>
-  <si>
-    <t>2006-05-25</t>
-  </si>
-  <si>
-    <t>2006-05-24</t>
-  </si>
-  <si>
-    <t>2006-05-23</t>
-  </si>
-  <si>
-    <t>2006-05-22</t>
-  </si>
-  <si>
-    <t>2006-05-19</t>
-  </si>
-  <si>
-    <t>2006-05-18</t>
-  </si>
-  <si>
-    <t>2006-05-17</t>
-  </si>
-  <si>
-    <t>2006-05-16</t>
-  </si>
-  <si>
-    <t>2006-05-15</t>
-  </si>
-  <si>
-    <t>2006-05-12</t>
-  </si>
-  <si>
-    <t>2006-05-11</t>
-  </si>
-  <si>
-    <t>2006-05-10</t>
-  </si>
-  <si>
-    <t>2006-05-09</t>
-  </si>
-  <si>
-    <t>2006-05-08</t>
-  </si>
-  <si>
-    <t>2006-05-05</t>
-  </si>
-  <si>
-    <t>2006-05-04</t>
-  </si>
-  <si>
-    <t>2006-05-03</t>
-  </si>
-  <si>
-    <t>2006-05-02</t>
-  </si>
-  <si>
-    <t>2006-05-01</t>
-  </si>
-  <si>
-    <t>2006-04-28</t>
-  </si>
-  <si>
-    <t>2006-04-27</t>
-  </si>
-  <si>
-    <t>2006-04-26</t>
-  </si>
-  <si>
-    <t>2006-04-25</t>
-  </si>
-  <si>
-    <t>2006-04-24</t>
-  </si>
-  <si>
-    <t>2006-04-21</t>
-  </si>
-  <si>
-    <t>2006-04-20</t>
-  </si>
-  <si>
-    <t>2006-04-19</t>
-  </si>
-  <si>
-    <t>2006-04-18</t>
-  </si>
-  <si>
-    <t>2006-04-17</t>
-  </si>
-  <si>
-    <t>2006-04-13</t>
-  </si>
-  <si>
-    <t>2006-04-12</t>
-  </si>
-  <si>
-    <t>2006-04-11</t>
-  </si>
-  <si>
-    <t>2006-04-10</t>
-  </si>
-  <si>
-    <t>2006-04-07</t>
-  </si>
-  <si>
-    <t>2006-04-06</t>
-  </si>
-  <si>
-    <t>2006-04-05</t>
-  </si>
-  <si>
-    <t>2006-04-04</t>
-  </si>
-  <si>
-    <t>2006-04-03</t>
-  </si>
-  <si>
-    <t>2006-03-31</t>
-  </si>
-  <si>
-    <t>2006-03-30</t>
-  </si>
-  <si>
-    <t>2006-03-29</t>
-  </si>
-  <si>
-    <t>2006-03-28</t>
-  </si>
-  <si>
-    <t>2006-03-27</t>
-  </si>
-  <si>
-    <t>2006-03-24</t>
-  </si>
-  <si>
-    <t>2006-03-23</t>
-  </si>
-  <si>
-    <t>2006-03-22</t>
-  </si>
-  <si>
-    <t>2006-03-21</t>
-  </si>
-  <si>
-    <t>2006-03-20</t>
-  </si>
-  <si>
-    <t>2006-03-17</t>
-  </si>
-  <si>
-    <t>2006-03-16</t>
-  </si>
-  <si>
-    <t>2006-03-15</t>
-  </si>
-  <si>
-    <t>2006-03-14</t>
-  </si>
-  <si>
-    <t>2006-03-13</t>
-  </si>
-  <si>
-    <t>2006-03-10</t>
-  </si>
-  <si>
-    <t>2006-03-09</t>
-  </si>
-  <si>
-    <t>2006-03-08</t>
-  </si>
-  <si>
-    <t>2006-03-07</t>
-  </si>
-  <si>
-    <t>2006-03-06</t>
-  </si>
-  <si>
-    <t>2006-03-03</t>
-  </si>
-  <si>
-    <t>2006-03-02</t>
-  </si>
-  <si>
-    <t>2006-03-01</t>
-  </si>
-  <si>
-    <t>2006-02-28</t>
-  </si>
-  <si>
-    <t>2006-02-27</t>
-  </si>
-  <si>
-    <t>2006-02-24</t>
-  </si>
-  <si>
-    <t>2006-02-23</t>
-  </si>
-  <si>
-    <t>2006-02-22</t>
-  </si>
-  <si>
-    <t>2006-02-21</t>
-  </si>
-  <si>
-    <t>2006-02-17</t>
-  </si>
-  <si>
-    <t>2006-02-16</t>
-  </si>
-  <si>
-    <t>2006-02-15</t>
-  </si>
-  <si>
-    <t>2006-02-14</t>
-  </si>
-  <si>
-    <t>2006-02-13</t>
-  </si>
-  <si>
-    <t>2006-02-10</t>
-  </si>
-  <si>
-    <t>2006-02-09</t>
-  </si>
-  <si>
-    <t>2006-02-08</t>
-  </si>
-  <si>
-    <t>2006-02-07</t>
-  </si>
-  <si>
-    <t>2006-02-06</t>
-  </si>
-  <si>
-    <t>2006-02-03</t>
-  </si>
-  <si>
-    <t>2006-02-02</t>
-  </si>
-  <si>
-    <t>2006-02-01</t>
-  </si>
-  <si>
-    <t>2006-01-31</t>
-  </si>
-  <si>
-    <t>2006-01-30</t>
-  </si>
-  <si>
-    <t>2006-01-27</t>
-  </si>
-  <si>
-    <t>2006-01-26</t>
-  </si>
-  <si>
-    <t>2006-01-25</t>
-  </si>
-  <si>
-    <t>2006-01-24</t>
-  </si>
-  <si>
-    <t>2006-01-23</t>
-  </si>
-  <si>
-    <t>2006-01-20</t>
-  </si>
-  <si>
-    <t>2006-01-19</t>
-  </si>
-  <si>
-    <t>2006-01-18</t>
-  </si>
-  <si>
-    <t>2006-01-17</t>
-  </si>
-  <si>
-    <t>2006-01-13</t>
-  </si>
-  <si>
-    <t>2006-01-12</t>
-  </si>
-  <si>
-    <t>2006-01-11</t>
-  </si>
-  <si>
-    <t>2006-01-10</t>
-  </si>
-  <si>
-    <t>2006-01-09</t>
-  </si>
-  <si>
-    <t>2006-01-06</t>
-  </si>
-  <si>
-    <t>2006-01-05</t>
-  </si>
-  <si>
-    <t>2006-01-04</t>
-  </si>
-  <si>
-    <t>2006-01-03</t>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-12-30</t>
+  </si>
+  <si>
+    <t>2015-12-29</t>
+  </si>
+  <si>
+    <t>2015-12-28</t>
+  </si>
+  <si>
+    <t>2015-12-24</t>
+  </si>
+  <si>
+    <t>2015-12-23</t>
+  </si>
+  <si>
+    <t>2015-12-22</t>
+  </si>
+  <si>
+    <t>2015-12-21</t>
+  </si>
+  <si>
+    <t>2015-12-18</t>
+  </si>
+  <si>
+    <t>2015-12-17</t>
+  </si>
+  <si>
+    <t>2015-12-16</t>
+  </si>
+  <si>
+    <t>2015-12-15</t>
+  </si>
+  <si>
+    <t>2015-12-14</t>
+  </si>
+  <si>
+    <t>2015-12-11</t>
+  </si>
+  <si>
+    <t>2015-12-10</t>
+  </si>
+  <si>
+    <t>2015-12-09</t>
+  </si>
+  <si>
+    <t>2015-12-08</t>
+  </si>
+  <si>
+    <t>2015-12-07</t>
+  </si>
+  <si>
+    <t>2015-12-04</t>
+  </si>
+  <si>
+    <t>2015-12-03</t>
+  </si>
+  <si>
+    <t>2015-12-02</t>
+  </si>
+  <si>
+    <t>2015-12-01</t>
+  </si>
+  <si>
+    <t>2015-11-30</t>
+  </si>
+  <si>
+    <t>2015-11-27</t>
+  </si>
+  <si>
+    <t>2015-11-25</t>
+  </si>
+  <si>
+    <t>2015-11-24</t>
+  </si>
+  <si>
+    <t>2015-11-23</t>
+  </si>
+  <si>
+    <t>2015-11-20</t>
+  </si>
+  <si>
+    <t>2015-11-19</t>
+  </si>
+  <si>
+    <t>2015-11-18</t>
+  </si>
+  <si>
+    <t>2015-11-17</t>
+  </si>
+  <si>
+    <t>2015-11-16</t>
+  </si>
+  <si>
+    <t>2015-11-13</t>
+  </si>
+  <si>
+    <t>2015-11-12</t>
+  </si>
+  <si>
+    <t>2015-11-10</t>
+  </si>
+  <si>
+    <t>2015-11-09</t>
+  </si>
+  <si>
+    <t>2015-11-06</t>
+  </si>
+  <si>
+    <t>2015-11-05</t>
+  </si>
+  <si>
+    <t>2015-11-04</t>
+  </si>
+  <si>
+    <t>2015-11-03</t>
+  </si>
+  <si>
+    <t>2015-11-02</t>
+  </si>
+  <si>
+    <t>2015-10-30</t>
+  </si>
+  <si>
+    <t>2015-10-29</t>
+  </si>
+  <si>
+    <t>2015-10-28</t>
+  </si>
+  <si>
+    <t>2015-10-27</t>
+  </si>
+  <si>
+    <t>2015-10-26</t>
+  </si>
+  <si>
+    <t>2015-10-23</t>
+  </si>
+  <si>
+    <t>2015-10-22</t>
+  </si>
+  <si>
+    <t>2015-10-21</t>
+  </si>
+  <si>
+    <t>2015-10-20</t>
+  </si>
+  <si>
+    <t>2015-10-19</t>
+  </si>
+  <si>
+    <t>2015-10-16</t>
+  </si>
+  <si>
+    <t>2015-10-15</t>
+  </si>
+  <si>
+    <t>2015-10-14</t>
+  </si>
+  <si>
+    <t>2015-10-13</t>
+  </si>
+  <si>
+    <t>2015-10-09</t>
+  </si>
+  <si>
+    <t>2015-10-08</t>
+  </si>
+  <si>
+    <t>2015-10-07</t>
+  </si>
+  <si>
+    <t>2015-10-06</t>
+  </si>
+  <si>
+    <t>2015-10-05</t>
+  </si>
+  <si>
+    <t>2015-10-02</t>
+  </si>
+  <si>
+    <t>2015-10-01</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-09-29</t>
+  </si>
+  <si>
+    <t>2015-09-28</t>
+  </si>
+  <si>
+    <t>2015-09-25</t>
+  </si>
+  <si>
+    <t>2015-09-24</t>
+  </si>
+  <si>
+    <t>2015-09-23</t>
+  </si>
+  <si>
+    <t>2015-09-22</t>
+  </si>
+  <si>
+    <t>2015-09-21</t>
+  </si>
+  <si>
+    <t>2015-09-18</t>
+  </si>
+  <si>
+    <t>2015-09-17</t>
+  </si>
+  <si>
+    <t>2015-09-16</t>
+  </si>
+  <si>
+    <t>2015-09-15</t>
+  </si>
+  <si>
+    <t>2015-09-14</t>
+  </si>
+  <si>
+    <t>2015-09-11</t>
+  </si>
+  <si>
+    <t>2015-09-10</t>
+  </si>
+  <si>
+    <t>2015-09-09</t>
+  </si>
+  <si>
+    <t>2015-09-08</t>
+  </si>
+  <si>
+    <t>2015-09-04</t>
+  </si>
+  <si>
+    <t>2015-09-03</t>
+  </si>
+  <si>
+    <t>2015-09-02</t>
+  </si>
+  <si>
+    <t>2015-09-01</t>
+  </si>
+  <si>
+    <t>2015-08-31</t>
+  </si>
+  <si>
+    <t>2015-08-28</t>
+  </si>
+  <si>
+    <t>2015-08-27</t>
+  </si>
+  <si>
+    <t>2015-08-26</t>
+  </si>
+  <si>
+    <t>2015-08-25</t>
+  </si>
+  <si>
+    <t>2015-08-24</t>
+  </si>
+  <si>
+    <t>2015-08-21</t>
+  </si>
+  <si>
+    <t>2015-08-20</t>
+  </si>
+  <si>
+    <t>2015-08-19</t>
+  </si>
+  <si>
+    <t>2015-08-18</t>
+  </si>
+  <si>
+    <t>2015-08-17</t>
+  </si>
+  <si>
+    <t>2015-08-14</t>
+  </si>
+  <si>
+    <t>2015-08-13</t>
+  </si>
+  <si>
+    <t>2015-08-12</t>
+  </si>
+  <si>
+    <t>2015-08-11</t>
+  </si>
+  <si>
+    <t>2015-08-10</t>
+  </si>
+  <si>
+    <t>2015-08-07</t>
+  </si>
+  <si>
+    <t>2015-08-06</t>
+  </si>
+  <si>
+    <t>2015-08-05</t>
+  </si>
+  <si>
+    <t>2015-08-04</t>
+  </si>
+  <si>
+    <t>2015-08-03</t>
+  </si>
+  <si>
+    <t>2015-07-31</t>
+  </si>
+  <si>
+    <t>2015-07-30</t>
+  </si>
+  <si>
+    <t>2015-07-29</t>
+  </si>
+  <si>
+    <t>2015-07-28</t>
+  </si>
+  <si>
+    <t>2015-07-27</t>
+  </si>
+  <si>
+    <t>2015-07-24</t>
+  </si>
+  <si>
+    <t>2015-07-23</t>
+  </si>
+  <si>
+    <t>2015-07-22</t>
+  </si>
+  <si>
+    <t>2015-07-21</t>
+  </si>
+  <si>
+    <t>2015-07-20</t>
+  </si>
+  <si>
+    <t>2015-07-17</t>
+  </si>
+  <si>
+    <t>2015-07-16</t>
+  </si>
+  <si>
+    <t>2015-07-15</t>
+  </si>
+  <si>
+    <t>2015-07-14</t>
+  </si>
+  <si>
+    <t>2015-07-13</t>
+  </si>
+  <si>
+    <t>2015-07-10</t>
+  </si>
+  <si>
+    <t>2015-07-09</t>
+  </si>
+  <si>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>2015-07-07</t>
+  </si>
+  <si>
+    <t>2015-07-06</t>
+  </si>
+  <si>
+    <t>2015-07-02</t>
+  </si>
+  <si>
+    <t>2015-07-01</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-06-29</t>
+  </si>
+  <si>
+    <t>2015-06-26</t>
+  </si>
+  <si>
+    <t>2015-06-25</t>
+  </si>
+  <si>
+    <t>2015-06-24</t>
+  </si>
+  <si>
+    <t>2015-06-23</t>
+  </si>
+  <si>
+    <t>2015-06-22</t>
+  </si>
+  <si>
+    <t>2015-06-19</t>
+  </si>
+  <si>
+    <t>2015-06-18</t>
+  </si>
+  <si>
+    <t>2015-06-17</t>
+  </si>
+  <si>
+    <t>2015-06-16</t>
+  </si>
+  <si>
+    <t>2015-06-15</t>
+  </si>
+  <si>
+    <t>2015-06-12</t>
+  </si>
+  <si>
+    <t>2015-06-11</t>
+  </si>
+  <si>
+    <t>2015-06-10</t>
+  </si>
+  <si>
+    <t>2015-06-09</t>
+  </si>
+  <si>
+    <t>2015-06-08</t>
+  </si>
+  <si>
+    <t>2015-06-05</t>
+  </si>
+  <si>
+    <t>2015-06-04</t>
+  </si>
+  <si>
+    <t>2015-06-03</t>
+  </si>
+  <si>
+    <t>2015-06-02</t>
+  </si>
+  <si>
+    <t>2015-06-01</t>
+  </si>
+  <si>
+    <t>2015-05-29</t>
+  </si>
+  <si>
+    <t>2015-05-28</t>
+  </si>
+  <si>
+    <t>2015-05-27</t>
+  </si>
+  <si>
+    <t>2015-05-26</t>
+  </si>
+  <si>
+    <t>2015-05-22</t>
+  </si>
+  <si>
+    <t>2015-05-21</t>
+  </si>
+  <si>
+    <t>2015-05-20</t>
+  </si>
+  <si>
+    <t>2015-05-19</t>
+  </si>
+  <si>
+    <t>2015-05-18</t>
+  </si>
+  <si>
+    <t>2015-05-15</t>
+  </si>
+  <si>
+    <t>2015-05-14</t>
+  </si>
+  <si>
+    <t>2015-05-13</t>
+  </si>
+  <si>
+    <t>2015-05-12</t>
+  </si>
+  <si>
+    <t>2015-05-11</t>
+  </si>
+  <si>
+    <t>2015-05-08</t>
+  </si>
+  <si>
+    <t>2015-05-07</t>
+  </si>
+  <si>
+    <t>2015-05-06</t>
+  </si>
+  <si>
+    <t>2015-05-05</t>
+  </si>
+  <si>
+    <t>2015-05-04</t>
+  </si>
+  <si>
+    <t>2015-05-01</t>
+  </si>
+  <si>
+    <t>2015-04-30</t>
+  </si>
+  <si>
+    <t>2015-04-29</t>
+  </si>
+  <si>
+    <t>2015-04-28</t>
+  </si>
+  <si>
+    <t>2015-04-27</t>
+  </si>
+  <si>
+    <t>2015-04-24</t>
+  </si>
+  <si>
+    <t>2015-04-23</t>
+  </si>
+  <si>
+    <t>2015-04-22</t>
+  </si>
+  <si>
+    <t>2015-04-21</t>
+  </si>
+  <si>
+    <t>2015-04-20</t>
+  </si>
+  <si>
+    <t>2015-04-17</t>
+  </si>
+  <si>
+    <t>2015-04-16</t>
+  </si>
+  <si>
+    <t>2015-04-15</t>
+  </si>
+  <si>
+    <t>2015-04-14</t>
+  </si>
+  <si>
+    <t>2015-04-13</t>
+  </si>
+  <si>
+    <t>2015-04-10</t>
+  </si>
+  <si>
+    <t>2015-04-09</t>
+  </si>
+  <si>
+    <t>2015-04-08</t>
+  </si>
+  <si>
+    <t>2015-04-07</t>
+  </si>
+  <si>
+    <t>2015-04-06</t>
+  </si>
+  <si>
+    <t>2015-04-03</t>
+  </si>
+  <si>
+    <t>2015-04-02</t>
+  </si>
+  <si>
+    <t>2015-04-01</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2015-03-30</t>
+  </si>
+  <si>
+    <t>2015-03-27</t>
+  </si>
+  <si>
+    <t>2015-03-26</t>
+  </si>
+  <si>
+    <t>2015-03-25</t>
+  </si>
+  <si>
+    <t>2015-03-24</t>
+  </si>
+  <si>
+    <t>2015-03-23</t>
+  </si>
+  <si>
+    <t>2015-03-20</t>
+  </si>
+  <si>
+    <t>2015-03-19</t>
+  </si>
+  <si>
+    <t>2015-03-18</t>
+  </si>
+  <si>
+    <t>2015-03-17</t>
+  </si>
+  <si>
+    <t>2015-03-16</t>
+  </si>
+  <si>
+    <t>2015-03-13</t>
+  </si>
+  <si>
+    <t>2015-03-12</t>
+  </si>
+  <si>
+    <t>2015-03-11</t>
+  </si>
+  <si>
+    <t>2015-03-10</t>
+  </si>
+  <si>
+    <t>2015-03-09</t>
+  </si>
+  <si>
+    <t>2015-03-06</t>
+  </si>
+  <si>
+    <t>2015-03-05</t>
+  </si>
+  <si>
+    <t>2015-03-04</t>
+  </si>
+  <si>
+    <t>2015-03-03</t>
+  </si>
+  <si>
+    <t>2015-03-02</t>
+  </si>
+  <si>
+    <t>2015-02-27</t>
+  </si>
+  <si>
+    <t>2015-02-26</t>
+  </si>
+  <si>
+    <t>2015-02-25</t>
+  </si>
+  <si>
+    <t>2015-02-24</t>
+  </si>
+  <si>
+    <t>2015-02-23</t>
+  </si>
+  <si>
+    <t>2015-02-20</t>
+  </si>
+  <si>
+    <t>2015-02-19</t>
+  </si>
+  <si>
+    <t>2015-02-18</t>
+  </si>
+  <si>
+    <t>2015-02-17</t>
+  </si>
+  <si>
+    <t>2015-02-13</t>
+  </si>
+  <si>
+    <t>2015-02-12</t>
+  </si>
+  <si>
+    <t>2015-02-11</t>
+  </si>
+  <si>
+    <t>2015-02-10</t>
+  </si>
+  <si>
+    <t>2015-02-09</t>
+  </si>
+  <si>
+    <t>2015-02-06</t>
+  </si>
+  <si>
+    <t>2015-02-05</t>
+  </si>
+  <si>
+    <t>2015-02-04</t>
+  </si>
+  <si>
+    <t>2015-02-03</t>
+  </si>
+  <si>
+    <t>2015-02-02</t>
+  </si>
+  <si>
+    <t>2015-01-30</t>
+  </si>
+  <si>
+    <t>2015-01-29</t>
+  </si>
+  <si>
+    <t>2015-01-28</t>
+  </si>
+  <si>
+    <t>2015-01-27</t>
+  </si>
+  <si>
+    <t>2015-01-26</t>
+  </si>
+  <si>
+    <t>2015-01-23</t>
+  </si>
+  <si>
+    <t>2015-01-22</t>
+  </si>
+  <si>
+    <t>2015-01-21</t>
+  </si>
+  <si>
+    <t>2015-01-20</t>
+  </si>
+  <si>
+    <t>2015-01-16</t>
+  </si>
+  <si>
+    <t>2015-01-15</t>
+  </si>
+  <si>
+    <t>2015-01-14</t>
+  </si>
+  <si>
+    <t>2015-01-13</t>
+  </si>
+  <si>
+    <t>2015-01-12</t>
+  </si>
+  <si>
+    <t>2015-01-09</t>
+  </si>
+  <si>
+    <t>2015-01-08</t>
+  </si>
+  <si>
+    <t>2015-01-07</t>
+  </si>
+  <si>
+    <t>2015-01-06</t>
+  </si>
+  <si>
+    <t>2015-01-05</t>
+  </si>
+  <si>
+    <t>2015-01-02</t>
   </si>
 </sst>
 </file>
@@ -1127,7 +1130,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B251"/>
+  <dimension ref="A1:B252"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1146,7 +1149,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.36</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1154,7 +1157,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.37</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1162,7 +1165,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.36</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1170,7 +1173,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.31</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1178,7 +1181,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.34</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1186,7 +1189,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.28</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1194,7 +1197,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.3</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1202,7 +1205,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.29</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1210,7 +1213,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.28</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1218,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2.25</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1226,7 +1229,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.21</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1234,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.2</v>
+        <v>1.13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1242,7 +1245,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.13</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1250,7 +1253,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.15</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1258,7 +1261,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.19</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1266,7 +1269,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.14</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1274,7 +1277,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.12</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1282,7 +1285,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.09</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.07</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1298,7 +1301,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2.06</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1306,7 +1309,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.1</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1314,7 +1317,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.15</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1322,7 +1325,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.13</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1330,7 +1333,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2.14</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1338,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.17</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1346,7 +1349,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1354,7 +1357,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2.2</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1362,7 +1365,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2.21</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1370,7 +1373,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2.21</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1378,7 +1381,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2.24</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1386,7 +1389,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.18</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1394,7 +1397,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2.15</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1402,7 +1405,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.18</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1410,7 +1413,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2.15</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1418,7 +1421,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.18</v>
+        <v>1.12</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1426,7 +1429,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.18</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1434,7 +1437,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.21</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1442,7 +1445,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>2.25</v>
+        <v>1.06</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1450,7 +1453,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>2.29</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1458,7 +1461,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>2.24</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1466,7 +1469,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1474,7 +1477,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>2.24</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1482,7 +1485,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.3</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1490,7 +1493,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>2.29</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1498,7 +1501,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>2.32</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1506,7 +1509,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>2.37</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1514,7 +1517,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.45</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1522,7 +1525,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>2.46</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1530,7 +1533,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>2.42</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1538,7 +1541,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1546,7 +1549,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2.39</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1554,7 +1557,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2.39</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1562,7 +1565,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2.38</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1570,7 +1573,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2.39</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1578,7 +1581,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.37</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1586,7 +1589,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2.37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1594,7 +1597,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2.33</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1602,7 +1605,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2.28</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1610,7 +1613,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2.22</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1618,7 +1621,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2.2</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1626,7 +1629,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2.23</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1634,7 +1637,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2.22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1642,7 +1645,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1650,7 +1653,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>2.22</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1658,7 +1661,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2.21</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1666,7 +1669,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1674,7 +1677,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>2.18</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1682,7 +1685,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>2.21</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1690,7 +1693,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2.26</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1698,7 +1701,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2.31</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1706,7 +1709,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>2.28</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1714,7 +1717,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2.33</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1722,7 +1725,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2.32</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1730,7 +1733,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>2.28</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1738,7 +1741,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2.29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1746,7 +1749,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>2.3</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1754,7 +1757,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2.33</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1762,7 +1765,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>2.29</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1770,7 +1773,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2.28</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1778,7 +1781,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2.28</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1786,7 +1789,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2.26</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1794,7 +1797,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2.2</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1802,7 +1805,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2.19</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1810,7 +1813,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>2.22</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1818,7 +1821,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2.23</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1826,7 +1829,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2.23</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1834,7 +1837,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2.21</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1842,7 +1845,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>2.23</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1850,7 +1853,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2.21</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1858,7 +1861,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2.2</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1866,7 +1869,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2.23</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1874,7 +1877,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>2.25</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1882,7 +1885,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2.28</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1890,7 +1893,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2.27</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1898,7 +1901,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2.3</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1906,7 +1909,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2.35</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1914,7 +1917,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.32</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1922,7 +1925,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2.3</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1930,7 +1933,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>2.27</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1938,7 +1941,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>2.26</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1946,7 +1949,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>2.27</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1954,7 +1957,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>2.29</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1962,7 +1965,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>2.34</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1970,7 +1973,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>2.35</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1978,7 +1981,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>2.38</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1986,7 +1989,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>2.37</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1994,7 +1997,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>2.37</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2002,7 +2005,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>2.41</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2010,7 +2013,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>2.4</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2018,7 +2021,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>2.44</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2026,7 +2029,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>2.47</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2034,7 +2037,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>2.45</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2042,7 +2045,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>2.43</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2050,7 +2053,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>2.45</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2058,7 +2061,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>2.51</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2066,7 +2069,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>2.45</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2074,7 +2077,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>2.46</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2082,7 +2085,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>2.48</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2090,7 +2093,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>2.5</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2098,7 +2101,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>2.5</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2106,7 +2109,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>2.52</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2114,7 +2117,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>2.52</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2122,7 +2125,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>2.56</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2130,7 +2133,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>2.6</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2138,7 +2141,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>2.53</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2146,7 +2149,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>2.52</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2154,7 +2157,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>2.6</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2162,7 +2165,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>2.63</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2170,7 +2173,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>2.59</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2178,7 +2181,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>2.62</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2186,7 +2189,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>2.59</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2194,7 +2197,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>2.56</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2202,7 +2205,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>2.54</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2210,7 +2213,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>2.53</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2218,7 +2221,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>2.52</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2226,7 +2229,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>2.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2234,7 +2237,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>2.48</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2242,7 +2245,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>2.46</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2250,7 +2253,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>2.41</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2258,7 +2261,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>2.43</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2266,7 +2269,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>2.42</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2274,7 +2277,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>2.45</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2282,7 +2285,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>2.47</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2290,7 +2293,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>2.42</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2298,7 +2301,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>2.38</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2306,7 +2309,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>2.37</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2314,7 +2317,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>2.45</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2322,7 +2325,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>2.46</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2330,7 +2333,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>2.45</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2338,7 +2341,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>2.43</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2346,7 +2349,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>2.44</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2354,7 +2357,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>2.4</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2362,7 +2365,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>2.42</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2370,7 +2373,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>2.42</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2378,7 +2381,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>2.41</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2386,7 +2389,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>2.42</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2394,7 +2397,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>2.49</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2402,7 +2405,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>2.44</v>
+        <v>0.71</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2410,7 +2413,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>2.48</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2418,7 +2421,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>2.47</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2426,7 +2429,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>2.44</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2434,7 +2437,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>2.43</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2442,7 +2445,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>2.45</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2450,7 +2453,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>2.46</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2458,7 +2461,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>2.48</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2466,7 +2469,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>2.51</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2474,7 +2477,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>2.49</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2482,7 +2485,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>2.46</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2490,7 +2493,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>2.46</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2498,7 +2501,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>2.42</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2506,7 +2509,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>2.46</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2514,7 +2517,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>2.5</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2522,7 +2525,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>2.47</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2530,7 +2533,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>2.4</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2538,7 +2541,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>2.4</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2546,7 +2549,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>2.42</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2554,7 +2557,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>2.4</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2562,7 +2565,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>2.39</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2570,7 +2573,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>2.42</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2578,7 +2581,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>2.46</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2586,7 +2589,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>2.39</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2594,7 +2597,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>2.34</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2602,7 +2605,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>2.37</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2610,7 +2613,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>2.39</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2618,7 +2621,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>2.33</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2626,7 +2629,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>2.29</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2634,7 +2637,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>2.31</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2645,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>2.3</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2650,7 +2653,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>2.29</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2658,7 +2661,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>2.3</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2666,7 +2669,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>2.26</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2677,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>2.23</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2682,7 +2685,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>2.17</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2690,7 +2693,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>2.12</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2698,7 +2701,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>2.17</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2706,7 +2709,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>2.16</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2714,7 +2717,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>2.17</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2722,7 +2725,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>2.11</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2730,7 +2733,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>2.12</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2738,7 +2741,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>2.09</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2746,7 +2749,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>2.14</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2754,7 +2757,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>2.11</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2762,7 +2765,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>2.16</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2770,7 +2773,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>2.14</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2778,7 +2781,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>2.11</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2786,7 +2789,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>2.11</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2794,7 +2797,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>2.08</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2802,7 +2805,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>2.06</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2810,7 +2813,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>2</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2818,7 +2821,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>1.99</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2826,7 +2829,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>1.96</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2834,7 +2837,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>1.93</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2842,7 +2845,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>1.96</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2850,7 +2853,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>1.94</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2858,7 +2861,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>1.96</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2866,7 +2869,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>1.93</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2874,7 +2877,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>1.97</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2882,7 +2885,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>1.93</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2890,7 +2893,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>1.99</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2898,7 +2901,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>2.02</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2906,7 +2909,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>2.03</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2914,7 +2917,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>1.97</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2922,7 +2925,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>1.97</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2930,7 +2933,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>1.94</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2938,7 +2941,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>1.97</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2946,7 +2949,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>1.93</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2954,7 +2957,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>1.91</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2962,7 +2965,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>1.92</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2970,7 +2973,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>1.99</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2978,7 +2981,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>1.99</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2986,7 +2989,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>1.98</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2994,7 +2997,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>2.03</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3002,7 +3005,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>2.03</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3010,7 +3013,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>2.07</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3018,7 +3021,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>2.06</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3026,7 +3029,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>1.99</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3034,7 +3037,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>1.95</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3042,7 +3045,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>1.94</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3050,7 +3053,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>1.98</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3058,7 +3061,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>1.96</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3066,7 +3069,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>1.95</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3074,7 +3077,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>1.97</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3082,7 +3085,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>2</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3090,7 +3093,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>2.05</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3098,7 +3101,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>2.05</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3106,7 +3109,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>2.03</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3114,7 +3117,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>2.01</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3122,7 +3125,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>2</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3130,7 +3133,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>1.96</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3138,7 +3141,15 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>1.99</v>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
+      <c r="A252" t="s">
+        <v>252</v>
+      </c>
+      <c r="B252">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>

--- a/data/treasury/daily_treasury_real_long_term.xlsx
+++ b/data/treasury/daily_treasury_real_long_term.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="252">
   <si>
     <t>Date</t>
   </si>
@@ -22,757 +22,754 @@
     <t>LT Real Average (10&gt; Yrs)</t>
   </si>
   <si>
-    <t>2015-12-31</t>
-  </si>
-  <si>
-    <t>2015-12-30</t>
-  </si>
-  <si>
-    <t>2015-12-29</t>
-  </si>
-  <si>
-    <t>2015-12-28</t>
-  </si>
-  <si>
-    <t>2015-12-24</t>
-  </si>
-  <si>
-    <t>2015-12-23</t>
-  </si>
-  <si>
-    <t>2015-12-22</t>
-  </si>
-  <si>
-    <t>2015-12-21</t>
-  </si>
-  <si>
-    <t>2015-12-18</t>
-  </si>
-  <si>
-    <t>2015-12-17</t>
-  </si>
-  <si>
-    <t>2015-12-16</t>
-  </si>
-  <si>
-    <t>2015-12-15</t>
-  </si>
-  <si>
-    <t>2015-12-14</t>
-  </si>
-  <si>
-    <t>2015-12-11</t>
-  </si>
-  <si>
-    <t>2015-12-10</t>
-  </si>
-  <si>
-    <t>2015-12-09</t>
-  </si>
-  <si>
-    <t>2015-12-08</t>
-  </si>
-  <si>
-    <t>2015-12-07</t>
-  </si>
-  <si>
-    <t>2015-12-04</t>
-  </si>
-  <si>
-    <t>2015-12-03</t>
-  </si>
-  <si>
-    <t>2015-12-02</t>
-  </si>
-  <si>
-    <t>2015-12-01</t>
-  </si>
-  <si>
-    <t>2015-11-30</t>
-  </si>
-  <si>
-    <t>2015-11-27</t>
-  </si>
-  <si>
-    <t>2015-11-25</t>
-  </si>
-  <si>
-    <t>2015-11-24</t>
-  </si>
-  <si>
-    <t>2015-11-23</t>
-  </si>
-  <si>
-    <t>2015-11-20</t>
-  </si>
-  <si>
-    <t>2015-11-19</t>
-  </si>
-  <si>
-    <t>2015-11-18</t>
-  </si>
-  <si>
-    <t>2015-11-17</t>
-  </si>
-  <si>
-    <t>2015-11-16</t>
-  </si>
-  <si>
-    <t>2015-11-13</t>
-  </si>
-  <si>
-    <t>2015-11-12</t>
-  </si>
-  <si>
-    <t>2015-11-10</t>
-  </si>
-  <si>
-    <t>2015-11-09</t>
-  </si>
-  <si>
-    <t>2015-11-06</t>
-  </si>
-  <si>
-    <t>2015-11-05</t>
-  </si>
-  <si>
-    <t>2015-11-04</t>
-  </si>
-  <si>
-    <t>2015-11-03</t>
-  </si>
-  <si>
-    <t>2015-11-02</t>
-  </si>
-  <si>
-    <t>2015-10-30</t>
-  </si>
-  <si>
-    <t>2015-10-29</t>
-  </si>
-  <si>
-    <t>2015-10-28</t>
-  </si>
-  <si>
-    <t>2015-10-27</t>
-  </si>
-  <si>
-    <t>2015-10-26</t>
-  </si>
-  <si>
-    <t>2015-10-23</t>
-  </si>
-  <si>
-    <t>2015-10-22</t>
-  </si>
-  <si>
-    <t>2015-10-21</t>
-  </si>
-  <si>
-    <t>2015-10-20</t>
-  </si>
-  <si>
-    <t>2015-10-19</t>
-  </si>
-  <si>
-    <t>2015-10-16</t>
-  </si>
-  <si>
-    <t>2015-10-15</t>
-  </si>
-  <si>
-    <t>2015-10-14</t>
-  </si>
-  <si>
-    <t>2015-10-13</t>
-  </si>
-  <si>
-    <t>2015-10-09</t>
-  </si>
-  <si>
-    <t>2015-10-08</t>
-  </si>
-  <si>
-    <t>2015-10-07</t>
-  </si>
-  <si>
-    <t>2015-10-06</t>
-  </si>
-  <si>
-    <t>2015-10-05</t>
-  </si>
-  <si>
-    <t>2015-10-02</t>
-  </si>
-  <si>
-    <t>2015-10-01</t>
-  </si>
-  <si>
-    <t>2015-09-30</t>
-  </si>
-  <si>
-    <t>2015-09-29</t>
-  </si>
-  <si>
-    <t>2015-09-28</t>
-  </si>
-  <si>
-    <t>2015-09-25</t>
-  </si>
-  <si>
-    <t>2015-09-24</t>
-  </si>
-  <si>
-    <t>2015-09-23</t>
-  </si>
-  <si>
-    <t>2015-09-22</t>
-  </si>
-  <si>
-    <t>2015-09-21</t>
-  </si>
-  <si>
-    <t>2015-09-18</t>
-  </si>
-  <si>
-    <t>2015-09-17</t>
-  </si>
-  <si>
-    <t>2015-09-16</t>
-  </si>
-  <si>
-    <t>2015-09-15</t>
-  </si>
-  <si>
-    <t>2015-09-14</t>
-  </si>
-  <si>
-    <t>2015-09-11</t>
-  </si>
-  <si>
-    <t>2015-09-10</t>
-  </si>
-  <si>
-    <t>2015-09-09</t>
-  </si>
-  <si>
-    <t>2015-09-08</t>
-  </si>
-  <si>
-    <t>2015-09-04</t>
-  </si>
-  <si>
-    <t>2015-09-03</t>
-  </si>
-  <si>
-    <t>2015-09-02</t>
-  </si>
-  <si>
-    <t>2015-09-01</t>
-  </si>
-  <si>
-    <t>2015-08-31</t>
-  </si>
-  <si>
-    <t>2015-08-28</t>
-  </si>
-  <si>
-    <t>2015-08-27</t>
-  </si>
-  <si>
-    <t>2015-08-26</t>
-  </si>
-  <si>
-    <t>2015-08-25</t>
-  </si>
-  <si>
-    <t>2015-08-24</t>
-  </si>
-  <si>
-    <t>2015-08-21</t>
-  </si>
-  <si>
-    <t>2015-08-20</t>
-  </si>
-  <si>
-    <t>2015-08-19</t>
-  </si>
-  <si>
-    <t>2015-08-18</t>
-  </si>
-  <si>
-    <t>2015-08-17</t>
-  </si>
-  <si>
-    <t>2015-08-14</t>
-  </si>
-  <si>
-    <t>2015-08-13</t>
-  </si>
-  <si>
-    <t>2015-08-12</t>
-  </si>
-  <si>
-    <t>2015-08-11</t>
-  </si>
-  <si>
-    <t>2015-08-10</t>
-  </si>
-  <si>
-    <t>2015-08-07</t>
-  </si>
-  <si>
-    <t>2015-08-06</t>
-  </si>
-  <si>
-    <t>2015-08-05</t>
-  </si>
-  <si>
-    <t>2015-08-04</t>
-  </si>
-  <si>
-    <t>2015-08-03</t>
-  </si>
-  <si>
-    <t>2015-07-31</t>
-  </si>
-  <si>
-    <t>2015-07-30</t>
-  </si>
-  <si>
-    <t>2015-07-29</t>
-  </si>
-  <si>
-    <t>2015-07-28</t>
-  </si>
-  <si>
-    <t>2015-07-27</t>
-  </si>
-  <si>
-    <t>2015-07-24</t>
-  </si>
-  <si>
-    <t>2015-07-23</t>
-  </si>
-  <si>
-    <t>2015-07-22</t>
-  </si>
-  <si>
-    <t>2015-07-21</t>
-  </si>
-  <si>
-    <t>2015-07-20</t>
-  </si>
-  <si>
-    <t>2015-07-17</t>
-  </si>
-  <si>
-    <t>2015-07-16</t>
-  </si>
-  <si>
-    <t>2015-07-15</t>
-  </si>
-  <si>
-    <t>2015-07-14</t>
-  </si>
-  <si>
-    <t>2015-07-13</t>
-  </si>
-  <si>
-    <t>2015-07-10</t>
-  </si>
-  <si>
-    <t>2015-07-09</t>
-  </si>
-  <si>
-    <t>2015-07-08</t>
-  </si>
-  <si>
-    <t>2015-07-07</t>
-  </si>
-  <si>
-    <t>2015-07-06</t>
-  </si>
-  <si>
-    <t>2015-07-02</t>
-  </si>
-  <si>
-    <t>2015-07-01</t>
-  </si>
-  <si>
-    <t>2015-06-30</t>
-  </si>
-  <si>
-    <t>2015-06-29</t>
-  </si>
-  <si>
-    <t>2015-06-26</t>
-  </si>
-  <si>
-    <t>2015-06-25</t>
-  </si>
-  <si>
-    <t>2015-06-24</t>
-  </si>
-  <si>
-    <t>2015-06-23</t>
-  </si>
-  <si>
-    <t>2015-06-22</t>
-  </si>
-  <si>
-    <t>2015-06-19</t>
-  </si>
-  <si>
-    <t>2015-06-18</t>
-  </si>
-  <si>
-    <t>2015-06-17</t>
-  </si>
-  <si>
-    <t>2015-06-16</t>
-  </si>
-  <si>
-    <t>2015-06-15</t>
-  </si>
-  <si>
-    <t>2015-06-12</t>
-  </si>
-  <si>
-    <t>2015-06-11</t>
-  </si>
-  <si>
-    <t>2015-06-10</t>
-  </si>
-  <si>
-    <t>2015-06-09</t>
-  </si>
-  <si>
-    <t>2015-06-08</t>
-  </si>
-  <si>
-    <t>2015-06-05</t>
-  </si>
-  <si>
-    <t>2015-06-04</t>
-  </si>
-  <si>
-    <t>2015-06-03</t>
-  </si>
-  <si>
-    <t>2015-06-02</t>
-  </si>
-  <si>
-    <t>2015-06-01</t>
-  </si>
-  <si>
-    <t>2015-05-29</t>
-  </si>
-  <si>
-    <t>2015-05-28</t>
-  </si>
-  <si>
-    <t>2015-05-27</t>
-  </si>
-  <si>
-    <t>2015-05-26</t>
-  </si>
-  <si>
-    <t>2015-05-22</t>
-  </si>
-  <si>
-    <t>2015-05-21</t>
-  </si>
-  <si>
-    <t>2015-05-20</t>
-  </si>
-  <si>
-    <t>2015-05-19</t>
-  </si>
-  <si>
-    <t>2015-05-18</t>
-  </si>
-  <si>
-    <t>2015-05-15</t>
-  </si>
-  <si>
-    <t>2015-05-14</t>
-  </si>
-  <si>
-    <t>2015-05-13</t>
-  </si>
-  <si>
-    <t>2015-05-12</t>
-  </si>
-  <si>
-    <t>2015-05-11</t>
-  </si>
-  <si>
-    <t>2015-05-08</t>
-  </si>
-  <si>
-    <t>2015-05-07</t>
-  </si>
-  <si>
-    <t>2015-05-06</t>
-  </si>
-  <si>
-    <t>2015-05-05</t>
-  </si>
-  <si>
-    <t>2015-05-04</t>
-  </si>
-  <si>
-    <t>2015-05-01</t>
-  </si>
-  <si>
-    <t>2015-04-30</t>
-  </si>
-  <si>
-    <t>2015-04-29</t>
-  </si>
-  <si>
-    <t>2015-04-28</t>
-  </si>
-  <si>
-    <t>2015-04-27</t>
-  </si>
-  <si>
-    <t>2015-04-24</t>
-  </si>
-  <si>
-    <t>2015-04-23</t>
-  </si>
-  <si>
-    <t>2015-04-22</t>
-  </si>
-  <si>
-    <t>2015-04-21</t>
-  </si>
-  <si>
-    <t>2015-04-20</t>
-  </si>
-  <si>
-    <t>2015-04-17</t>
-  </si>
-  <si>
-    <t>2015-04-16</t>
-  </si>
-  <si>
-    <t>2015-04-15</t>
-  </si>
-  <si>
-    <t>2015-04-14</t>
-  </si>
-  <si>
-    <t>2015-04-13</t>
-  </si>
-  <si>
-    <t>2015-04-10</t>
-  </si>
-  <si>
-    <t>2015-04-09</t>
-  </si>
-  <si>
-    <t>2015-04-08</t>
-  </si>
-  <si>
-    <t>2015-04-07</t>
-  </si>
-  <si>
-    <t>2015-04-06</t>
-  </si>
-  <si>
-    <t>2015-04-03</t>
-  </si>
-  <si>
-    <t>2015-04-02</t>
-  </si>
-  <si>
-    <t>2015-04-01</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>2015-03-30</t>
-  </si>
-  <si>
-    <t>2015-03-27</t>
-  </si>
-  <si>
-    <t>2015-03-26</t>
-  </si>
-  <si>
-    <t>2015-03-25</t>
-  </si>
-  <si>
-    <t>2015-03-24</t>
-  </si>
-  <si>
-    <t>2015-03-23</t>
-  </si>
-  <si>
-    <t>2015-03-20</t>
-  </si>
-  <si>
-    <t>2015-03-19</t>
-  </si>
-  <si>
-    <t>2015-03-18</t>
-  </si>
-  <si>
-    <t>2015-03-17</t>
-  </si>
-  <si>
-    <t>2015-03-16</t>
-  </si>
-  <si>
-    <t>2015-03-13</t>
-  </si>
-  <si>
-    <t>2015-03-12</t>
-  </si>
-  <si>
-    <t>2015-03-11</t>
-  </si>
-  <si>
-    <t>2015-03-10</t>
-  </si>
-  <si>
-    <t>2015-03-09</t>
-  </si>
-  <si>
-    <t>2015-03-06</t>
-  </si>
-  <si>
-    <t>2015-03-05</t>
-  </si>
-  <si>
-    <t>2015-03-04</t>
-  </si>
-  <si>
-    <t>2015-03-03</t>
-  </si>
-  <si>
-    <t>2015-03-02</t>
-  </si>
-  <si>
-    <t>2015-02-27</t>
-  </si>
-  <si>
-    <t>2015-02-26</t>
-  </si>
-  <si>
-    <t>2015-02-25</t>
-  </si>
-  <si>
-    <t>2015-02-24</t>
-  </si>
-  <si>
-    <t>2015-02-23</t>
-  </si>
-  <si>
-    <t>2015-02-20</t>
-  </si>
-  <si>
-    <t>2015-02-19</t>
-  </si>
-  <si>
-    <t>2015-02-18</t>
-  </si>
-  <si>
-    <t>2015-02-17</t>
-  </si>
-  <si>
-    <t>2015-02-13</t>
-  </si>
-  <si>
-    <t>2015-02-12</t>
-  </si>
-  <si>
-    <t>2015-02-11</t>
-  </si>
-  <si>
-    <t>2015-02-10</t>
-  </si>
-  <si>
-    <t>2015-02-09</t>
-  </si>
-  <si>
-    <t>2015-02-06</t>
-  </si>
-  <si>
-    <t>2015-02-05</t>
-  </si>
-  <si>
-    <t>2015-02-04</t>
-  </si>
-  <si>
-    <t>2015-02-03</t>
-  </si>
-  <si>
-    <t>2015-02-02</t>
-  </si>
-  <si>
-    <t>2015-01-30</t>
-  </si>
-  <si>
-    <t>2015-01-29</t>
-  </si>
-  <si>
-    <t>2015-01-28</t>
-  </si>
-  <si>
-    <t>2015-01-27</t>
-  </si>
-  <si>
-    <t>2015-01-26</t>
-  </si>
-  <si>
-    <t>2015-01-23</t>
-  </si>
-  <si>
-    <t>2015-01-22</t>
-  </si>
-  <si>
-    <t>2015-01-21</t>
-  </si>
-  <si>
-    <t>2015-01-20</t>
-  </si>
-  <si>
-    <t>2015-01-16</t>
-  </si>
-  <si>
-    <t>2015-01-15</t>
-  </si>
-  <si>
-    <t>2015-01-14</t>
-  </si>
-  <si>
-    <t>2015-01-13</t>
-  </si>
-  <si>
-    <t>2015-01-12</t>
-  </si>
-  <si>
-    <t>2015-01-09</t>
-  </si>
-  <si>
-    <t>2015-01-08</t>
-  </si>
-  <si>
-    <t>2015-01-07</t>
-  </si>
-  <si>
-    <t>2015-01-06</t>
-  </si>
-  <si>
-    <t>2015-01-05</t>
-  </si>
-  <si>
-    <t>2015-01-02</t>
+    <t>2002-12-31</t>
+  </si>
+  <si>
+    <t>2002-12-30</t>
+  </si>
+  <si>
+    <t>2002-12-27</t>
+  </si>
+  <si>
+    <t>2002-12-26</t>
+  </si>
+  <si>
+    <t>2002-12-24</t>
+  </si>
+  <si>
+    <t>2002-12-23</t>
+  </si>
+  <si>
+    <t>2002-12-20</t>
+  </si>
+  <si>
+    <t>2002-12-19</t>
+  </si>
+  <si>
+    <t>2002-12-18</t>
+  </si>
+  <si>
+    <t>2002-12-17</t>
+  </si>
+  <si>
+    <t>2002-12-16</t>
+  </si>
+  <si>
+    <t>2002-12-13</t>
+  </si>
+  <si>
+    <t>2002-12-12</t>
+  </si>
+  <si>
+    <t>2002-12-11</t>
+  </si>
+  <si>
+    <t>2002-12-10</t>
+  </si>
+  <si>
+    <t>2002-12-09</t>
+  </si>
+  <si>
+    <t>2002-12-06</t>
+  </si>
+  <si>
+    <t>2002-12-05</t>
+  </si>
+  <si>
+    <t>2002-12-04</t>
+  </si>
+  <si>
+    <t>2002-12-03</t>
+  </si>
+  <si>
+    <t>2002-12-02</t>
+  </si>
+  <si>
+    <t>2002-11-29</t>
+  </si>
+  <si>
+    <t>2002-11-27</t>
+  </si>
+  <si>
+    <t>2002-11-26</t>
+  </si>
+  <si>
+    <t>2002-11-25</t>
+  </si>
+  <si>
+    <t>2002-11-22</t>
+  </si>
+  <si>
+    <t>2002-11-21</t>
+  </si>
+  <si>
+    <t>2002-11-20</t>
+  </si>
+  <si>
+    <t>2002-11-19</t>
+  </si>
+  <si>
+    <t>2002-11-18</t>
+  </si>
+  <si>
+    <t>2002-11-15</t>
+  </si>
+  <si>
+    <t>2002-11-14</t>
+  </si>
+  <si>
+    <t>2002-11-13</t>
+  </si>
+  <si>
+    <t>2002-11-12</t>
+  </si>
+  <si>
+    <t>2002-11-08</t>
+  </si>
+  <si>
+    <t>2002-11-07</t>
+  </si>
+  <si>
+    <t>2002-11-06</t>
+  </si>
+  <si>
+    <t>2002-11-05</t>
+  </si>
+  <si>
+    <t>2002-11-04</t>
+  </si>
+  <si>
+    <t>2002-11-01</t>
+  </si>
+  <si>
+    <t>2002-10-31</t>
+  </si>
+  <si>
+    <t>2002-10-30</t>
+  </si>
+  <si>
+    <t>2002-10-29</t>
+  </si>
+  <si>
+    <t>2002-10-28</t>
+  </si>
+  <si>
+    <t>2002-10-25</t>
+  </si>
+  <si>
+    <t>2002-10-24</t>
+  </si>
+  <si>
+    <t>2002-10-23</t>
+  </si>
+  <si>
+    <t>2002-10-22</t>
+  </si>
+  <si>
+    <t>2002-10-21</t>
+  </si>
+  <si>
+    <t>2002-10-18</t>
+  </si>
+  <si>
+    <t>2002-10-17</t>
+  </si>
+  <si>
+    <t>2002-10-16</t>
+  </si>
+  <si>
+    <t>2002-10-15</t>
+  </si>
+  <si>
+    <t>2002-10-11</t>
+  </si>
+  <si>
+    <t>2002-10-10</t>
+  </si>
+  <si>
+    <t>2002-10-09</t>
+  </si>
+  <si>
+    <t>2002-10-08</t>
+  </si>
+  <si>
+    <t>2002-10-07</t>
+  </si>
+  <si>
+    <t>2002-10-04</t>
+  </si>
+  <si>
+    <t>2002-10-03</t>
+  </si>
+  <si>
+    <t>2002-10-02</t>
+  </si>
+  <si>
+    <t>2002-10-01</t>
+  </si>
+  <si>
+    <t>2002-09-30</t>
+  </si>
+  <si>
+    <t>2002-09-27</t>
+  </si>
+  <si>
+    <t>2002-09-26</t>
+  </si>
+  <si>
+    <t>2002-09-25</t>
+  </si>
+  <si>
+    <t>2002-09-24</t>
+  </si>
+  <si>
+    <t>2002-09-23</t>
+  </si>
+  <si>
+    <t>2002-09-20</t>
+  </si>
+  <si>
+    <t>2002-09-19</t>
+  </si>
+  <si>
+    <t>2002-09-18</t>
+  </si>
+  <si>
+    <t>2002-09-17</t>
+  </si>
+  <si>
+    <t>2002-09-16</t>
+  </si>
+  <si>
+    <t>2002-09-13</t>
+  </si>
+  <si>
+    <t>2002-09-12</t>
+  </si>
+  <si>
+    <t>2002-09-11</t>
+  </si>
+  <si>
+    <t>2002-09-10</t>
+  </si>
+  <si>
+    <t>2002-09-09</t>
+  </si>
+  <si>
+    <t>2002-09-06</t>
+  </si>
+  <si>
+    <t>2002-09-05</t>
+  </si>
+  <si>
+    <t>2002-09-04</t>
+  </si>
+  <si>
+    <t>2002-09-03</t>
+  </si>
+  <si>
+    <t>2002-08-30</t>
+  </si>
+  <si>
+    <t>2002-08-29</t>
+  </si>
+  <si>
+    <t>2002-08-28</t>
+  </si>
+  <si>
+    <t>2002-08-27</t>
+  </si>
+  <si>
+    <t>2002-08-26</t>
+  </si>
+  <si>
+    <t>2002-08-23</t>
+  </si>
+  <si>
+    <t>2002-08-22</t>
+  </si>
+  <si>
+    <t>2002-08-21</t>
+  </si>
+  <si>
+    <t>2002-08-20</t>
+  </si>
+  <si>
+    <t>2002-08-19</t>
+  </si>
+  <si>
+    <t>2002-08-16</t>
+  </si>
+  <si>
+    <t>2002-08-15</t>
+  </si>
+  <si>
+    <t>2002-08-14</t>
+  </si>
+  <si>
+    <t>2002-08-13</t>
+  </si>
+  <si>
+    <t>2002-08-12</t>
+  </si>
+  <si>
+    <t>2002-08-09</t>
+  </si>
+  <si>
+    <t>2002-08-08</t>
+  </si>
+  <si>
+    <t>2002-08-07</t>
+  </si>
+  <si>
+    <t>2002-08-06</t>
+  </si>
+  <si>
+    <t>2002-08-05</t>
+  </si>
+  <si>
+    <t>2002-08-02</t>
+  </si>
+  <si>
+    <t>2002-08-01</t>
+  </si>
+  <si>
+    <t>2002-07-31</t>
+  </si>
+  <si>
+    <t>2002-07-30</t>
+  </si>
+  <si>
+    <t>2002-07-29</t>
+  </si>
+  <si>
+    <t>2002-07-26</t>
+  </si>
+  <si>
+    <t>2002-07-25</t>
+  </si>
+  <si>
+    <t>2002-07-24</t>
+  </si>
+  <si>
+    <t>2002-07-23</t>
+  </si>
+  <si>
+    <t>2002-07-22</t>
+  </si>
+  <si>
+    <t>2002-07-19</t>
+  </si>
+  <si>
+    <t>2002-07-18</t>
+  </si>
+  <si>
+    <t>2002-07-17</t>
+  </si>
+  <si>
+    <t>2002-07-16</t>
+  </si>
+  <si>
+    <t>2002-07-15</t>
+  </si>
+  <si>
+    <t>2002-07-12</t>
+  </si>
+  <si>
+    <t>2002-07-11</t>
+  </si>
+  <si>
+    <t>2002-07-10</t>
+  </si>
+  <si>
+    <t>2002-07-09</t>
+  </si>
+  <si>
+    <t>2002-07-08</t>
+  </si>
+  <si>
+    <t>2002-07-05</t>
+  </si>
+  <si>
+    <t>2002-07-03</t>
+  </si>
+  <si>
+    <t>2002-07-02</t>
+  </si>
+  <si>
+    <t>2002-07-01</t>
+  </si>
+  <si>
+    <t>2002-06-28</t>
+  </si>
+  <si>
+    <t>2002-06-27</t>
+  </si>
+  <si>
+    <t>2002-06-26</t>
+  </si>
+  <si>
+    <t>2002-06-25</t>
+  </si>
+  <si>
+    <t>2002-06-24</t>
+  </si>
+  <si>
+    <t>2002-06-21</t>
+  </si>
+  <si>
+    <t>2002-06-20</t>
+  </si>
+  <si>
+    <t>2002-06-19</t>
+  </si>
+  <si>
+    <t>2002-06-18</t>
+  </si>
+  <si>
+    <t>2002-06-17</t>
+  </si>
+  <si>
+    <t>2002-06-14</t>
+  </si>
+  <si>
+    <t>2002-06-13</t>
+  </si>
+  <si>
+    <t>2002-06-12</t>
+  </si>
+  <si>
+    <t>2002-06-11</t>
+  </si>
+  <si>
+    <t>2002-06-10</t>
+  </si>
+  <si>
+    <t>2002-06-07</t>
+  </si>
+  <si>
+    <t>2002-06-06</t>
+  </si>
+  <si>
+    <t>2002-06-05</t>
+  </si>
+  <si>
+    <t>2002-06-04</t>
+  </si>
+  <si>
+    <t>2002-06-03</t>
+  </si>
+  <si>
+    <t>2002-05-31</t>
+  </si>
+  <si>
+    <t>2002-05-30</t>
+  </si>
+  <si>
+    <t>2002-05-29</t>
+  </si>
+  <si>
+    <t>2002-05-28</t>
+  </si>
+  <si>
+    <t>2002-05-24</t>
+  </si>
+  <si>
+    <t>2002-05-23</t>
+  </si>
+  <si>
+    <t>2002-05-22</t>
+  </si>
+  <si>
+    <t>2002-05-21</t>
+  </si>
+  <si>
+    <t>2002-05-20</t>
+  </si>
+  <si>
+    <t>2002-05-17</t>
+  </si>
+  <si>
+    <t>2002-05-16</t>
+  </si>
+  <si>
+    <t>2002-05-15</t>
+  </si>
+  <si>
+    <t>2002-05-14</t>
+  </si>
+  <si>
+    <t>2002-05-13</t>
+  </si>
+  <si>
+    <t>2002-05-10</t>
+  </si>
+  <si>
+    <t>2002-05-09</t>
+  </si>
+  <si>
+    <t>2002-05-08</t>
+  </si>
+  <si>
+    <t>2002-05-07</t>
+  </si>
+  <si>
+    <t>2002-05-06</t>
+  </si>
+  <si>
+    <t>2002-05-03</t>
+  </si>
+  <si>
+    <t>2002-05-02</t>
+  </si>
+  <si>
+    <t>2002-05-01</t>
+  </si>
+  <si>
+    <t>2002-04-30</t>
+  </si>
+  <si>
+    <t>2002-04-29</t>
+  </si>
+  <si>
+    <t>2002-04-26</t>
+  </si>
+  <si>
+    <t>2002-04-25</t>
+  </si>
+  <si>
+    <t>2002-04-24</t>
+  </si>
+  <si>
+    <t>2002-04-23</t>
+  </si>
+  <si>
+    <t>2002-04-22</t>
+  </si>
+  <si>
+    <t>2002-04-19</t>
+  </si>
+  <si>
+    <t>2002-04-18</t>
+  </si>
+  <si>
+    <t>2002-04-17</t>
+  </si>
+  <si>
+    <t>2002-04-16</t>
+  </si>
+  <si>
+    <t>2002-04-15</t>
+  </si>
+  <si>
+    <t>2002-04-12</t>
+  </si>
+  <si>
+    <t>2002-04-11</t>
+  </si>
+  <si>
+    <t>2002-04-10</t>
+  </si>
+  <si>
+    <t>2002-04-09</t>
+  </si>
+  <si>
+    <t>2002-04-08</t>
+  </si>
+  <si>
+    <t>2002-04-05</t>
+  </si>
+  <si>
+    <t>2002-04-04</t>
+  </si>
+  <si>
+    <t>2002-04-03</t>
+  </si>
+  <si>
+    <t>2002-04-02</t>
+  </si>
+  <si>
+    <t>2002-04-01</t>
+  </si>
+  <si>
+    <t>2002-03-28</t>
+  </si>
+  <si>
+    <t>2002-03-27</t>
+  </si>
+  <si>
+    <t>2002-03-26</t>
+  </si>
+  <si>
+    <t>2002-03-25</t>
+  </si>
+  <si>
+    <t>2002-03-22</t>
+  </si>
+  <si>
+    <t>2002-03-21</t>
+  </si>
+  <si>
+    <t>2002-03-20</t>
+  </si>
+  <si>
+    <t>2002-03-19</t>
+  </si>
+  <si>
+    <t>2002-03-18</t>
+  </si>
+  <si>
+    <t>2002-03-15</t>
+  </si>
+  <si>
+    <t>2002-03-14</t>
+  </si>
+  <si>
+    <t>2002-03-13</t>
+  </si>
+  <si>
+    <t>2002-03-12</t>
+  </si>
+  <si>
+    <t>2002-03-11</t>
+  </si>
+  <si>
+    <t>2002-03-08</t>
+  </si>
+  <si>
+    <t>2002-03-07</t>
+  </si>
+  <si>
+    <t>2002-03-06</t>
+  </si>
+  <si>
+    <t>2002-03-05</t>
+  </si>
+  <si>
+    <t>2002-03-04</t>
+  </si>
+  <si>
+    <t>2002-03-01</t>
+  </si>
+  <si>
+    <t>2002-02-28</t>
+  </si>
+  <si>
+    <t>2002-02-27</t>
+  </si>
+  <si>
+    <t>2002-02-26</t>
+  </si>
+  <si>
+    <t>2002-02-25</t>
+  </si>
+  <si>
+    <t>2002-02-22</t>
+  </si>
+  <si>
+    <t>2002-02-21</t>
+  </si>
+  <si>
+    <t>2002-02-20</t>
+  </si>
+  <si>
+    <t>2002-02-19</t>
+  </si>
+  <si>
+    <t>2002-02-15</t>
+  </si>
+  <si>
+    <t>2002-02-14</t>
+  </si>
+  <si>
+    <t>2002-02-13</t>
+  </si>
+  <si>
+    <t>2002-02-12</t>
+  </si>
+  <si>
+    <t>2002-02-11</t>
+  </si>
+  <si>
+    <t>2002-02-08</t>
+  </si>
+  <si>
+    <t>2002-02-07</t>
+  </si>
+  <si>
+    <t>2002-02-06</t>
+  </si>
+  <si>
+    <t>2002-02-05</t>
+  </si>
+  <si>
+    <t>2002-02-04</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>2002-01-31</t>
+  </si>
+  <si>
+    <t>2002-01-30</t>
+  </si>
+  <si>
+    <t>2002-01-29</t>
+  </si>
+  <si>
+    <t>2002-01-28</t>
+  </si>
+  <si>
+    <t>2002-01-25</t>
+  </si>
+  <si>
+    <t>2002-01-24</t>
+  </si>
+  <si>
+    <t>2002-01-23</t>
+  </si>
+  <si>
+    <t>2002-01-22</t>
+  </si>
+  <si>
+    <t>2002-01-18</t>
+  </si>
+  <si>
+    <t>2002-01-17</t>
+  </si>
+  <si>
+    <t>2002-01-16</t>
+  </si>
+  <si>
+    <t>2002-01-15</t>
+  </si>
+  <si>
+    <t>2002-01-14</t>
+  </si>
+  <si>
+    <t>2002-01-11</t>
+  </si>
+  <si>
+    <t>2002-01-10</t>
+  </si>
+  <si>
+    <t>2002-01-09</t>
+  </si>
+  <si>
+    <t>2002-01-08</t>
+  </si>
+  <si>
+    <t>2002-01-07</t>
+  </si>
+  <si>
+    <t>2002-01-04</t>
+  </si>
+  <si>
+    <t>2002-01-03</t>
+  </si>
+  <si>
+    <t>2002-01-02</t>
   </si>
 </sst>
 </file>
@@ -1130,7 +1127,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B252"/>
+  <dimension ref="A1:B251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1149,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>1.1</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1157,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1.13</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1165,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1.14</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1173,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1.07</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1181,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1.08</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1189,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>1.11</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1197,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>1.12</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1205,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>1.09</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1213,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>1.07</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1221,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>1.1</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1229,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>1.16</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1237,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>1.13</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1245,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>1.12</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1253,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>1.01</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1261,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>1.06</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1269,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>1.03</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1277,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>1.01</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1285,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1293,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1301,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.07</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1309,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>0.96</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1317,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.9399999999999999</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1325,7 +1322,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.98</v>
+        <v>2.94</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1333,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>0.99</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1341,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>0.99</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1349,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>0.99</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1357,7 +1354,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>0.99</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1365,7 +1362,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.01</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1373,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>1.02</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1381,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>1.06</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1389,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>1.07</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1397,7 +1394,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>1.11</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1405,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>1.1</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1413,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>1.12</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1421,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>1.12</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1429,7 +1426,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>1.11</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1437,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>1.11</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1445,7 +1442,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>1.06</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1453,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>1.03</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1461,7 +1458,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>1.02</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1469,7 +1466,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1477,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>0.98</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1485,7 +1482,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>1.02</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1493,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>0.99</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1501,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>0.95</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1509,7 +1506,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>0.96</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1517,7 +1514,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>0.96</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1525,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>0.96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1533,7 +1530,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1541,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>1.01</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1549,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>1.01</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1557,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>0.98</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1565,7 +1562,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>0.96</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1573,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>0.93</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1581,7 +1578,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>0.96</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1589,7 +1586,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1597,7 +1594,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>0.97</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1605,7 +1602,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.95</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1613,7 +1610,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>0.95</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1621,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>0.98</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1629,7 +1626,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>0.93</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1637,7 +1634,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1645,7 +1642,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>1.05</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1653,7 +1650,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>1.05</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1661,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>1.07</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1669,7 +1666,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>1.1</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1677,7 +1674,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>1.03</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1685,7 +1682,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>1.04</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1693,7 +1690,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>1.04</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1701,7 +1698,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>1.08</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1709,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>0.98</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1717,7 +1714,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>1.04</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1725,7 +1722,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>1.11</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1733,7 +1730,7 @@
         <v>75</v>
       </c>
       <c r="B75">
-        <v>1.09</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="76" spans="1:2">
@@ -1741,7 +1738,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>1</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1749,7 +1746,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>0.98</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1757,7 +1754,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>1.01</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1765,7 +1762,7 @@
         <v>79</v>
       </c>
       <c r="B79">
-        <v>1.01</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="80" spans="1:2">
@@ -1773,7 +1770,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>1.04</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1781,7 +1778,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>0.98</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1789,7 +1786,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1797,7 +1794,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>1.02</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1805,7 +1802,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>0.97</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1813,7 +1810,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>0.96</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1821,7 +1818,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>0.93</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1829,7 +1826,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>0.96</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1837,7 +1834,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>1.02</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1845,7 +1842,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>0.95</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1853,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.87</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1861,7 +1858,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>0.85</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1869,7 +1866,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>0.84</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1877,7 +1874,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>0.87</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1885,7 +1882,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>0.92</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1893,7 +1890,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>0.87</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1901,7 +1898,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>0.87</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1909,7 +1906,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>0.88</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1917,7 +1914,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>0.84</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1925,7 +1922,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>0.8100000000000001</v>
+        <v>2.97</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1933,7 +1930,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>0.86</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1941,7 +1938,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>0.82</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1949,7 +1946,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>0.88</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1957,7 +1954,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>0.9</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1965,7 +1962,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>0.85</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1973,7 +1970,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>0.8</v>
+        <v>3.08</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1981,7 +1978,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>0.82</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1989,7 +1986,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>0.85</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1997,7 +1994,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>0.86</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2005,7 +2002,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>0.85</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2013,7 +2010,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>0.82</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2021,7 +2018,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>0.84</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2029,7 +2026,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>0.83</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2037,7 +2034,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>0.87</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2045,7 +2042,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>0.89</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2053,7 +2050,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>0.91</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2061,7 +2058,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>0.89</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2069,7 +2066,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>0.89</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2077,7 +2074,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>0.91</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2085,7 +2082,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>0.96</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2093,7 +2090,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>0.97</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2101,7 +2098,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>0.95</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2109,7 +2106,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>0.88</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2117,7 +2114,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>0.78</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2125,7 +2122,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>0.79</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2133,7 +2130,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>0.82</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2141,7 +2138,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>0.91</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2149,7 +2146,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>0.9399999999999999</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2157,7 +2154,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>0.87</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2165,7 +2162,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>0.85</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2173,7 +2170,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>0.97</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2181,7 +2178,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>0.89</v>
+        <v>3.17</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2189,7 +2186,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>0.88</v>
+        <v>3.13</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2197,7 +2194,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>0.92</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2205,7 +2202,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>0.88</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2213,7 +2210,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>0.8100000000000001</v>
+        <v>3.12</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2221,7 +2218,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>0.88</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2229,7 +2226,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>0.85</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2237,7 +2234,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>0.82</v>
+        <v>3.14</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2245,7 +2242,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>0.88</v>
+        <v>3.19</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2253,7 +2250,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>0.92</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2261,7 +2258,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>0.93</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2269,7 +2266,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>1.01</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2277,7 +2274,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>0.9399999999999999</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2285,7 +2282,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>0.92</v>
+        <v>3.21</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2293,7 +2290,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>0.92</v>
+        <v>3.22</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2301,7 +2298,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>0.86</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2309,7 +2306,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>0.93</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2317,7 +2314,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>0.85</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2325,7 +2322,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>0.79</v>
+        <v>3.24</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2333,7 +2330,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>0.72</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2341,7 +2338,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>0.75</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2349,7 +2346,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>0.73</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2357,7 +2354,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>0.71</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2365,7 +2362,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>0.76</v>
+        <v>3.29</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2373,7 +2370,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>0.77</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2381,7 +2378,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>0.82</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2389,7 +2386,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>0.83</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2397,7 +2394,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>0.79</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2405,7 +2402,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>0.71</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2413,7 +2410,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>0.8</v>
+        <v>3.35</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2421,7 +2418,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>0.82</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2429,7 +2426,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>0.79</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2437,7 +2434,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>0.79</v>
+        <v>3.31</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2445,7 +2442,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>0.68</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2453,7 +2450,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>0.68</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2461,7 +2458,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>0.75</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2469,7 +2466,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>0.66</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2477,7 +2474,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>0.66</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2485,7 +2482,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>0.59</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2493,7 +2490,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>0.53</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2501,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>0.5600000000000001</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2509,7 +2506,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>0.52</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2517,7 +2514,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>0.44</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2525,7 +2522,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>0.46</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2533,7 +2530,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>0.48</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2541,7 +2538,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>0.52</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2549,7 +2546,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>0.45</v>
+        <v>3.32</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2557,7 +2554,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>0.41</v>
+        <v>3.33</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2565,7 +2562,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>0.37</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2573,7 +2570,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>0.46</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2581,7 +2578,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>0.46</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2589,7 +2586,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>0.48</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2597,7 +2594,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>0.51</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2605,7 +2602,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>0.5</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2613,7 +2610,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>0.5</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2621,7 +2618,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>0.46</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2629,7 +2626,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>0.43</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2637,7 +2634,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>0.48</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2645,7 +2642,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>0.41</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2653,7 +2650,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>0.47</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2661,7 +2658,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>0.43</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2669,7 +2666,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>0.53</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2677,7 +2674,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>0.54</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2685,7 +2682,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>0.49</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2693,7 +2690,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>0.52</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2701,7 +2698,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>0.43</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2709,7 +2706,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>0.41</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2717,7 +2714,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>0.48</v>
+        <v>3.54</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2725,7 +2722,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>0.47</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2733,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>0.5</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2741,7 +2738,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>0.52</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2749,7 +2746,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>0.67</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2757,7 +2754,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>0.72</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2765,7 +2762,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>0.72</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2773,7 +2770,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>0.68</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2781,7 +2778,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>0.67</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2789,7 +2786,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>0.6899999999999999</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2797,7 +2794,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>0.72</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2805,7 +2802,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>0.7</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2813,7 +2810,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>0.57</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2821,7 +2818,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>0.57</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2829,7 +2826,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>0.58</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2837,7 +2834,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>0.59</v>
+        <v>3.39</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2845,7 +2842,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>0.51</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2853,7 +2850,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>0.55</v>
+        <v>3.38</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2861,7 +2858,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>0.54</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2869,7 +2866,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>0.58</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2877,7 +2874,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>0.64</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2885,7 +2882,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>0.68</v>
+        <v>3.43</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2893,7 +2890,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>0.68</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2901,7 +2898,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>0.68</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2909,7 +2906,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>0.73</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2917,7 +2914,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>0.66</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2925,7 +2922,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>0.64</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2933,7 +2930,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>0.61</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2941,7 +2938,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>0.6</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2949,7 +2946,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>0.54</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2957,7 +2954,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>0.53</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2965,7 +2962,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>0.48</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2973,7 +2970,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>0.45</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2981,7 +2978,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>0.46</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2989,7 +2986,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>0.39</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2997,7 +2994,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>0.37</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3005,7 +3002,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>0.45</v>
+        <v>3.53</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3013,7 +3010,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>0.41</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3021,7 +3018,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>0.49</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3029,7 +3026,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>0.5</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3037,7 +3034,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>0.48</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3045,7 +3042,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>0.5600000000000001</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3053,7 +3050,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>0.58</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3061,7 +3058,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>0.51</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3069,7 +3066,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>0.53</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3077,7 +3074,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>0.47</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3085,7 +3082,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>0.5600000000000001</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3093,7 +3090,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>0.62</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3101,7 +3098,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>0.59</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3109,7 +3106,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>0.61</v>
+        <v>3.47</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3117,7 +3114,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>0.63</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3125,7 +3122,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>0.58</v>
+        <v>3.49</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3133,7 +3130,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>0.58</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3141,15 +3138,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>0.6</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2">
-      <c r="A252" t="s">
-        <v>252</v>
-      </c>
-      <c r="B252">
-        <v>0.64</v>
+        <v>3.5</v>
       </c>
     </row>
   </sheetData>

--- a/data/treasury/daily_treasury_real_long_term.xlsx
+++ b/data/treasury/daily_treasury_real_long_term.xlsx
@@ -22,754 +22,754 @@
     <t>LT Real Average (10&gt; Yrs)</t>
   </si>
   <si>
-    <t>2002-12-31</t>
-  </si>
-  <si>
-    <t>2002-12-30</t>
-  </si>
-  <si>
-    <t>2002-12-27</t>
-  </si>
-  <si>
-    <t>2002-12-26</t>
-  </si>
-  <si>
-    <t>2002-12-24</t>
-  </si>
-  <si>
-    <t>2002-12-23</t>
-  </si>
-  <si>
-    <t>2002-12-20</t>
-  </si>
-  <si>
-    <t>2002-12-19</t>
-  </si>
-  <si>
-    <t>2002-12-18</t>
-  </si>
-  <si>
-    <t>2002-12-17</t>
-  </si>
-  <si>
-    <t>2002-12-16</t>
-  </si>
-  <si>
-    <t>2002-12-13</t>
-  </si>
-  <si>
-    <t>2002-12-12</t>
-  </si>
-  <si>
-    <t>2002-12-11</t>
-  </si>
-  <si>
-    <t>2002-12-10</t>
-  </si>
-  <si>
-    <t>2002-12-09</t>
-  </si>
-  <si>
-    <t>2002-12-06</t>
-  </si>
-  <si>
-    <t>2002-12-05</t>
-  </si>
-  <si>
-    <t>2002-12-04</t>
-  </si>
-  <si>
-    <t>2002-12-03</t>
-  </si>
-  <si>
-    <t>2002-12-02</t>
-  </si>
-  <si>
-    <t>2002-11-29</t>
-  </si>
-  <si>
-    <t>2002-11-27</t>
-  </si>
-  <si>
-    <t>2002-11-26</t>
-  </si>
-  <si>
-    <t>2002-11-25</t>
-  </si>
-  <si>
-    <t>2002-11-22</t>
-  </si>
-  <si>
-    <t>2002-11-21</t>
-  </si>
-  <si>
-    <t>2002-11-20</t>
-  </si>
-  <si>
-    <t>2002-11-19</t>
-  </si>
-  <si>
-    <t>2002-11-18</t>
-  </si>
-  <si>
-    <t>2002-11-15</t>
-  </si>
-  <si>
-    <t>2002-11-14</t>
-  </si>
-  <si>
-    <t>2002-11-13</t>
-  </si>
-  <si>
-    <t>2002-11-12</t>
-  </si>
-  <si>
-    <t>2002-11-08</t>
-  </si>
-  <si>
-    <t>2002-11-07</t>
-  </si>
-  <si>
-    <t>2002-11-06</t>
-  </si>
-  <si>
-    <t>2002-11-05</t>
-  </si>
-  <si>
-    <t>2002-11-04</t>
-  </si>
-  <si>
-    <t>2002-11-01</t>
-  </si>
-  <si>
-    <t>2002-10-31</t>
-  </si>
-  <si>
-    <t>2002-10-30</t>
-  </si>
-  <si>
-    <t>2002-10-29</t>
-  </si>
-  <si>
-    <t>2002-10-28</t>
-  </si>
-  <si>
-    <t>2002-10-25</t>
-  </si>
-  <si>
-    <t>2002-10-24</t>
-  </si>
-  <si>
-    <t>2002-10-23</t>
-  </si>
-  <si>
-    <t>2002-10-22</t>
-  </si>
-  <si>
-    <t>2002-10-21</t>
-  </si>
-  <si>
-    <t>2002-10-18</t>
-  </si>
-  <si>
-    <t>2002-10-17</t>
-  </si>
-  <si>
-    <t>2002-10-16</t>
-  </si>
-  <si>
-    <t>2002-10-15</t>
-  </si>
-  <si>
-    <t>2002-10-11</t>
-  </si>
-  <si>
-    <t>2002-10-10</t>
-  </si>
-  <si>
-    <t>2002-10-09</t>
-  </si>
-  <si>
-    <t>2002-10-08</t>
-  </si>
-  <si>
-    <t>2002-10-07</t>
-  </si>
-  <si>
-    <t>2002-10-04</t>
-  </si>
-  <si>
-    <t>2002-10-03</t>
-  </si>
-  <si>
-    <t>2002-10-02</t>
-  </si>
-  <si>
-    <t>2002-10-01</t>
-  </si>
-  <si>
-    <t>2002-09-30</t>
-  </si>
-  <si>
-    <t>2002-09-27</t>
-  </si>
-  <si>
-    <t>2002-09-26</t>
-  </si>
-  <si>
-    <t>2002-09-25</t>
-  </si>
-  <si>
-    <t>2002-09-24</t>
-  </si>
-  <si>
-    <t>2002-09-23</t>
-  </si>
-  <si>
-    <t>2002-09-20</t>
-  </si>
-  <si>
-    <t>2002-09-19</t>
-  </si>
-  <si>
-    <t>2002-09-18</t>
-  </si>
-  <si>
-    <t>2002-09-17</t>
-  </si>
-  <si>
-    <t>2002-09-16</t>
-  </si>
-  <si>
-    <t>2002-09-13</t>
-  </si>
-  <si>
-    <t>2002-09-12</t>
-  </si>
-  <si>
-    <t>2002-09-11</t>
-  </si>
-  <si>
-    <t>2002-09-10</t>
-  </si>
-  <si>
-    <t>2002-09-09</t>
-  </si>
-  <si>
-    <t>2002-09-06</t>
-  </si>
-  <si>
-    <t>2002-09-05</t>
-  </si>
-  <si>
-    <t>2002-09-04</t>
-  </si>
-  <si>
-    <t>2002-09-03</t>
-  </si>
-  <si>
-    <t>2002-08-30</t>
-  </si>
-  <si>
-    <t>2002-08-29</t>
-  </si>
-  <si>
-    <t>2002-08-28</t>
-  </si>
-  <si>
-    <t>2002-08-27</t>
-  </si>
-  <si>
-    <t>2002-08-26</t>
-  </si>
-  <si>
-    <t>2002-08-23</t>
-  </si>
-  <si>
-    <t>2002-08-22</t>
-  </si>
-  <si>
-    <t>2002-08-21</t>
-  </si>
-  <si>
-    <t>2002-08-20</t>
-  </si>
-  <si>
-    <t>2002-08-19</t>
-  </si>
-  <si>
-    <t>2002-08-16</t>
-  </si>
-  <si>
-    <t>2002-08-15</t>
-  </si>
-  <si>
-    <t>2002-08-14</t>
-  </si>
-  <si>
-    <t>2002-08-13</t>
-  </si>
-  <si>
-    <t>2002-08-12</t>
-  </si>
-  <si>
-    <t>2002-08-09</t>
-  </si>
-  <si>
-    <t>2002-08-08</t>
-  </si>
-  <si>
-    <t>2002-08-07</t>
-  </si>
-  <si>
-    <t>2002-08-06</t>
-  </si>
-  <si>
-    <t>2002-08-05</t>
-  </si>
-  <si>
-    <t>2002-08-02</t>
-  </si>
-  <si>
-    <t>2002-08-01</t>
-  </si>
-  <si>
-    <t>2002-07-31</t>
-  </si>
-  <si>
-    <t>2002-07-30</t>
-  </si>
-  <si>
-    <t>2002-07-29</t>
-  </si>
-  <si>
-    <t>2002-07-26</t>
-  </si>
-  <si>
-    <t>2002-07-25</t>
-  </si>
-  <si>
-    <t>2002-07-24</t>
-  </si>
-  <si>
-    <t>2002-07-23</t>
-  </si>
-  <si>
-    <t>2002-07-22</t>
-  </si>
-  <si>
-    <t>2002-07-19</t>
-  </si>
-  <si>
-    <t>2002-07-18</t>
-  </si>
-  <si>
-    <t>2002-07-17</t>
-  </si>
-  <si>
-    <t>2002-07-16</t>
-  </si>
-  <si>
-    <t>2002-07-15</t>
-  </si>
-  <si>
-    <t>2002-07-12</t>
-  </si>
-  <si>
-    <t>2002-07-11</t>
-  </si>
-  <si>
-    <t>2002-07-10</t>
-  </si>
-  <si>
-    <t>2002-07-09</t>
-  </si>
-  <si>
-    <t>2002-07-08</t>
-  </si>
-  <si>
-    <t>2002-07-05</t>
-  </si>
-  <si>
-    <t>2002-07-03</t>
-  </si>
-  <si>
-    <t>2002-07-02</t>
-  </si>
-  <si>
-    <t>2002-07-01</t>
-  </si>
-  <si>
-    <t>2002-06-28</t>
-  </si>
-  <si>
-    <t>2002-06-27</t>
-  </si>
-  <si>
-    <t>2002-06-26</t>
-  </si>
-  <si>
-    <t>2002-06-25</t>
-  </si>
-  <si>
-    <t>2002-06-24</t>
-  </si>
-  <si>
-    <t>2002-06-21</t>
-  </si>
-  <si>
-    <t>2002-06-20</t>
-  </si>
-  <si>
-    <t>2002-06-19</t>
-  </si>
-  <si>
-    <t>2002-06-18</t>
-  </si>
-  <si>
-    <t>2002-06-17</t>
-  </si>
-  <si>
-    <t>2002-06-14</t>
-  </si>
-  <si>
-    <t>2002-06-13</t>
-  </si>
-  <si>
-    <t>2002-06-12</t>
-  </si>
-  <si>
-    <t>2002-06-11</t>
-  </si>
-  <si>
-    <t>2002-06-10</t>
-  </si>
-  <si>
-    <t>2002-06-07</t>
-  </si>
-  <si>
-    <t>2002-06-06</t>
-  </si>
-  <si>
-    <t>2002-06-05</t>
-  </si>
-  <si>
-    <t>2002-06-04</t>
-  </si>
-  <si>
-    <t>2002-06-03</t>
-  </si>
-  <si>
-    <t>2002-05-31</t>
-  </si>
-  <si>
-    <t>2002-05-30</t>
-  </si>
-  <si>
-    <t>2002-05-29</t>
-  </si>
-  <si>
-    <t>2002-05-28</t>
-  </si>
-  <si>
-    <t>2002-05-24</t>
-  </si>
-  <si>
-    <t>2002-05-23</t>
-  </si>
-  <si>
-    <t>2002-05-22</t>
-  </si>
-  <si>
-    <t>2002-05-21</t>
-  </si>
-  <si>
-    <t>2002-05-20</t>
-  </si>
-  <si>
-    <t>2002-05-17</t>
-  </si>
-  <si>
-    <t>2002-05-16</t>
-  </si>
-  <si>
-    <t>2002-05-15</t>
-  </si>
-  <si>
-    <t>2002-05-14</t>
-  </si>
-  <si>
-    <t>2002-05-13</t>
-  </si>
-  <si>
-    <t>2002-05-10</t>
-  </si>
-  <si>
-    <t>2002-05-09</t>
-  </si>
-  <si>
-    <t>2002-05-08</t>
-  </si>
-  <si>
-    <t>2002-05-07</t>
-  </si>
-  <si>
-    <t>2002-05-06</t>
-  </si>
-  <si>
-    <t>2002-05-03</t>
-  </si>
-  <si>
-    <t>2002-05-02</t>
-  </si>
-  <si>
-    <t>2002-05-01</t>
-  </si>
-  <si>
-    <t>2002-04-30</t>
-  </si>
-  <si>
-    <t>2002-04-29</t>
-  </si>
-  <si>
-    <t>2002-04-26</t>
-  </si>
-  <si>
-    <t>2002-04-25</t>
-  </si>
-  <si>
-    <t>2002-04-24</t>
-  </si>
-  <si>
-    <t>2002-04-23</t>
-  </si>
-  <si>
-    <t>2002-04-22</t>
-  </si>
-  <si>
-    <t>2002-04-19</t>
-  </si>
-  <si>
-    <t>2002-04-18</t>
-  </si>
-  <si>
-    <t>2002-04-17</t>
-  </si>
-  <si>
-    <t>2002-04-16</t>
-  </si>
-  <si>
-    <t>2002-04-15</t>
-  </si>
-  <si>
-    <t>2002-04-12</t>
-  </si>
-  <si>
-    <t>2002-04-11</t>
-  </si>
-  <si>
-    <t>2002-04-10</t>
-  </si>
-  <si>
-    <t>2002-04-09</t>
-  </si>
-  <si>
-    <t>2002-04-08</t>
-  </si>
-  <si>
-    <t>2002-04-05</t>
-  </si>
-  <si>
-    <t>2002-04-04</t>
-  </si>
-  <si>
-    <t>2002-04-03</t>
-  </si>
-  <si>
-    <t>2002-04-02</t>
-  </si>
-  <si>
-    <t>2002-04-01</t>
-  </si>
-  <si>
-    <t>2002-03-28</t>
-  </si>
-  <si>
-    <t>2002-03-27</t>
-  </si>
-  <si>
-    <t>2002-03-26</t>
-  </si>
-  <si>
-    <t>2002-03-25</t>
-  </si>
-  <si>
-    <t>2002-03-22</t>
-  </si>
-  <si>
-    <t>2002-03-21</t>
-  </si>
-  <si>
-    <t>2002-03-20</t>
-  </si>
-  <si>
-    <t>2002-03-19</t>
-  </si>
-  <si>
-    <t>2002-03-18</t>
-  </si>
-  <si>
-    <t>2002-03-15</t>
-  </si>
-  <si>
-    <t>2002-03-14</t>
-  </si>
-  <si>
-    <t>2002-03-13</t>
-  </si>
-  <si>
-    <t>2002-03-12</t>
-  </si>
-  <si>
-    <t>2002-03-11</t>
-  </si>
-  <si>
-    <t>2002-03-08</t>
-  </si>
-  <si>
-    <t>2002-03-07</t>
-  </si>
-  <si>
-    <t>2002-03-06</t>
-  </si>
-  <si>
-    <t>2002-03-05</t>
-  </si>
-  <si>
-    <t>2002-03-04</t>
-  </si>
-  <si>
-    <t>2002-03-01</t>
-  </si>
-  <si>
-    <t>2002-02-28</t>
-  </si>
-  <si>
-    <t>2002-02-27</t>
-  </si>
-  <si>
-    <t>2002-02-26</t>
-  </si>
-  <si>
-    <t>2002-02-25</t>
-  </si>
-  <si>
-    <t>2002-02-22</t>
-  </si>
-  <si>
-    <t>2002-02-21</t>
-  </si>
-  <si>
-    <t>2002-02-20</t>
-  </si>
-  <si>
-    <t>2002-02-19</t>
-  </si>
-  <si>
-    <t>2002-02-15</t>
-  </si>
-  <si>
-    <t>2002-02-14</t>
-  </si>
-  <si>
-    <t>2002-02-13</t>
-  </si>
-  <si>
-    <t>2002-02-12</t>
-  </si>
-  <si>
-    <t>2002-02-11</t>
-  </si>
-  <si>
-    <t>2002-02-08</t>
-  </si>
-  <si>
-    <t>2002-02-07</t>
-  </si>
-  <si>
-    <t>2002-02-06</t>
-  </si>
-  <si>
-    <t>2002-02-05</t>
-  </si>
-  <si>
-    <t>2002-02-04</t>
-  </si>
-  <si>
-    <t>2002-02-01</t>
-  </si>
-  <si>
-    <t>2002-01-31</t>
-  </si>
-  <si>
-    <t>2002-01-30</t>
-  </si>
-  <si>
-    <t>2002-01-29</t>
-  </si>
-  <si>
-    <t>2002-01-28</t>
-  </si>
-  <si>
-    <t>2002-01-25</t>
-  </si>
-  <si>
-    <t>2002-01-24</t>
-  </si>
-  <si>
-    <t>2002-01-23</t>
-  </si>
-  <si>
-    <t>2002-01-22</t>
-  </si>
-  <si>
-    <t>2002-01-18</t>
-  </si>
-  <si>
-    <t>2002-01-17</t>
-  </si>
-  <si>
-    <t>2002-01-16</t>
-  </si>
-  <si>
-    <t>2002-01-15</t>
-  </si>
-  <si>
-    <t>2002-01-14</t>
-  </si>
-  <si>
-    <t>2002-01-11</t>
-  </si>
-  <si>
-    <t>2002-01-10</t>
-  </si>
-  <si>
-    <t>2002-01-09</t>
-  </si>
-  <si>
-    <t>2002-01-08</t>
-  </si>
-  <si>
-    <t>2002-01-07</t>
-  </si>
-  <si>
-    <t>2002-01-04</t>
-  </si>
-  <si>
-    <t>2002-01-03</t>
-  </si>
-  <si>
-    <t>2002-01-02</t>
+    <t>2003-12-31</t>
+  </si>
+  <si>
+    <t>2003-12-30</t>
+  </si>
+  <si>
+    <t>2003-12-29</t>
+  </si>
+  <si>
+    <t>2003-12-26</t>
+  </si>
+  <si>
+    <t>2003-12-24</t>
+  </si>
+  <si>
+    <t>2003-12-23</t>
+  </si>
+  <si>
+    <t>2003-12-22</t>
+  </si>
+  <si>
+    <t>2003-12-19</t>
+  </si>
+  <si>
+    <t>2003-12-18</t>
+  </si>
+  <si>
+    <t>2003-12-17</t>
+  </si>
+  <si>
+    <t>2003-12-16</t>
+  </si>
+  <si>
+    <t>2003-12-15</t>
+  </si>
+  <si>
+    <t>2003-12-12</t>
+  </si>
+  <si>
+    <t>2003-12-11</t>
+  </si>
+  <si>
+    <t>2003-12-10</t>
+  </si>
+  <si>
+    <t>2003-12-09</t>
+  </si>
+  <si>
+    <t>2003-12-08</t>
+  </si>
+  <si>
+    <t>2003-12-05</t>
+  </si>
+  <si>
+    <t>2003-12-04</t>
+  </si>
+  <si>
+    <t>2003-12-03</t>
+  </si>
+  <si>
+    <t>2003-12-02</t>
+  </si>
+  <si>
+    <t>2003-12-01</t>
+  </si>
+  <si>
+    <t>2003-11-28</t>
+  </si>
+  <si>
+    <t>2003-11-26</t>
+  </si>
+  <si>
+    <t>2003-11-25</t>
+  </si>
+  <si>
+    <t>2003-11-24</t>
+  </si>
+  <si>
+    <t>2003-11-21</t>
+  </si>
+  <si>
+    <t>2003-11-20</t>
+  </si>
+  <si>
+    <t>2003-11-19</t>
+  </si>
+  <si>
+    <t>2003-11-18</t>
+  </si>
+  <si>
+    <t>2003-11-17</t>
+  </si>
+  <si>
+    <t>2003-11-14</t>
+  </si>
+  <si>
+    <t>2003-11-13</t>
+  </si>
+  <si>
+    <t>2003-11-12</t>
+  </si>
+  <si>
+    <t>2003-11-10</t>
+  </si>
+  <si>
+    <t>2003-11-07</t>
+  </si>
+  <si>
+    <t>2003-11-06</t>
+  </si>
+  <si>
+    <t>2003-11-05</t>
+  </si>
+  <si>
+    <t>2003-11-04</t>
+  </si>
+  <si>
+    <t>2003-11-03</t>
+  </si>
+  <si>
+    <t>2003-10-31</t>
+  </si>
+  <si>
+    <t>2003-10-30</t>
+  </si>
+  <si>
+    <t>2003-10-29</t>
+  </si>
+  <si>
+    <t>2003-10-28</t>
+  </si>
+  <si>
+    <t>2003-10-27</t>
+  </si>
+  <si>
+    <t>2003-10-24</t>
+  </si>
+  <si>
+    <t>2003-10-23</t>
+  </si>
+  <si>
+    <t>2003-10-22</t>
+  </si>
+  <si>
+    <t>2003-10-21</t>
+  </si>
+  <si>
+    <t>2003-10-20</t>
+  </si>
+  <si>
+    <t>2003-10-17</t>
+  </si>
+  <si>
+    <t>2003-10-16</t>
+  </si>
+  <si>
+    <t>2003-10-15</t>
+  </si>
+  <si>
+    <t>2003-10-14</t>
+  </si>
+  <si>
+    <t>2003-10-10</t>
+  </si>
+  <si>
+    <t>2003-10-09</t>
+  </si>
+  <si>
+    <t>2003-10-08</t>
+  </si>
+  <si>
+    <t>2003-10-07</t>
+  </si>
+  <si>
+    <t>2003-10-06</t>
+  </si>
+  <si>
+    <t>2003-10-03</t>
+  </si>
+  <si>
+    <t>2003-10-02</t>
+  </si>
+  <si>
+    <t>2003-10-01</t>
+  </si>
+  <si>
+    <t>2003-09-30</t>
+  </si>
+  <si>
+    <t>2003-09-29</t>
+  </si>
+  <si>
+    <t>2003-09-26</t>
+  </si>
+  <si>
+    <t>2003-09-25</t>
+  </si>
+  <si>
+    <t>2003-09-24</t>
+  </si>
+  <si>
+    <t>2003-09-23</t>
+  </si>
+  <si>
+    <t>2003-09-22</t>
+  </si>
+  <si>
+    <t>2003-09-19</t>
+  </si>
+  <si>
+    <t>2003-09-18</t>
+  </si>
+  <si>
+    <t>2003-09-17</t>
+  </si>
+  <si>
+    <t>2003-09-16</t>
+  </si>
+  <si>
+    <t>2003-09-15</t>
+  </si>
+  <si>
+    <t>2003-09-12</t>
+  </si>
+  <si>
+    <t>2003-09-11</t>
+  </si>
+  <si>
+    <t>2003-09-10</t>
+  </si>
+  <si>
+    <t>2003-09-09</t>
+  </si>
+  <si>
+    <t>2003-09-08</t>
+  </si>
+  <si>
+    <t>2003-09-05</t>
+  </si>
+  <si>
+    <t>2003-09-04</t>
+  </si>
+  <si>
+    <t>2003-09-03</t>
+  </si>
+  <si>
+    <t>2003-09-02</t>
+  </si>
+  <si>
+    <t>2003-08-29</t>
+  </si>
+  <si>
+    <t>2003-08-28</t>
+  </si>
+  <si>
+    <t>2003-08-27</t>
+  </si>
+  <si>
+    <t>2003-08-26</t>
+  </si>
+  <si>
+    <t>2003-08-25</t>
+  </si>
+  <si>
+    <t>2003-08-22</t>
+  </si>
+  <si>
+    <t>2003-08-21</t>
+  </si>
+  <si>
+    <t>2003-08-20</t>
+  </si>
+  <si>
+    <t>2003-08-19</t>
+  </si>
+  <si>
+    <t>2003-08-18</t>
+  </si>
+  <si>
+    <t>2003-08-15</t>
+  </si>
+  <si>
+    <t>2003-08-14</t>
+  </si>
+  <si>
+    <t>2003-08-13</t>
+  </si>
+  <si>
+    <t>2003-08-12</t>
+  </si>
+  <si>
+    <t>2003-08-11</t>
+  </si>
+  <si>
+    <t>2003-08-08</t>
+  </si>
+  <si>
+    <t>2003-08-07</t>
+  </si>
+  <si>
+    <t>2003-08-06</t>
+  </si>
+  <si>
+    <t>2003-08-05</t>
+  </si>
+  <si>
+    <t>2003-08-04</t>
+  </si>
+  <si>
+    <t>2003-08-01</t>
+  </si>
+  <si>
+    <t>2003-07-31</t>
+  </si>
+  <si>
+    <t>2003-07-30</t>
+  </si>
+  <si>
+    <t>2003-07-29</t>
+  </si>
+  <si>
+    <t>2003-07-28</t>
+  </si>
+  <si>
+    <t>2003-07-25</t>
+  </si>
+  <si>
+    <t>2003-07-24</t>
+  </si>
+  <si>
+    <t>2003-07-23</t>
+  </si>
+  <si>
+    <t>2003-07-22</t>
+  </si>
+  <si>
+    <t>2003-07-21</t>
+  </si>
+  <si>
+    <t>2003-07-18</t>
+  </si>
+  <si>
+    <t>2003-07-17</t>
+  </si>
+  <si>
+    <t>2003-07-16</t>
+  </si>
+  <si>
+    <t>2003-07-15</t>
+  </si>
+  <si>
+    <t>2003-07-14</t>
+  </si>
+  <si>
+    <t>2003-07-11</t>
+  </si>
+  <si>
+    <t>2003-07-10</t>
+  </si>
+  <si>
+    <t>2003-07-09</t>
+  </si>
+  <si>
+    <t>2003-07-08</t>
+  </si>
+  <si>
+    <t>2003-07-07</t>
+  </si>
+  <si>
+    <t>2003-07-03</t>
+  </si>
+  <si>
+    <t>2003-07-02</t>
+  </si>
+  <si>
+    <t>2003-07-01</t>
+  </si>
+  <si>
+    <t>2003-06-30</t>
+  </si>
+  <si>
+    <t>2003-06-27</t>
+  </si>
+  <si>
+    <t>2003-06-26</t>
+  </si>
+  <si>
+    <t>2003-06-25</t>
+  </si>
+  <si>
+    <t>2003-06-24</t>
+  </si>
+  <si>
+    <t>2003-06-23</t>
+  </si>
+  <si>
+    <t>2003-06-20</t>
+  </si>
+  <si>
+    <t>2003-06-19</t>
+  </si>
+  <si>
+    <t>2003-06-18</t>
+  </si>
+  <si>
+    <t>2003-06-17</t>
+  </si>
+  <si>
+    <t>2003-06-16</t>
+  </si>
+  <si>
+    <t>2003-06-13</t>
+  </si>
+  <si>
+    <t>2003-06-12</t>
+  </si>
+  <si>
+    <t>2003-06-11</t>
+  </si>
+  <si>
+    <t>2003-06-10</t>
+  </si>
+  <si>
+    <t>2003-06-09</t>
+  </si>
+  <si>
+    <t>2003-06-06</t>
+  </si>
+  <si>
+    <t>2003-06-05</t>
+  </si>
+  <si>
+    <t>2003-06-04</t>
+  </si>
+  <si>
+    <t>2003-06-03</t>
+  </si>
+  <si>
+    <t>2003-06-02</t>
+  </si>
+  <si>
+    <t>2003-05-30</t>
+  </si>
+  <si>
+    <t>2003-05-29</t>
+  </si>
+  <si>
+    <t>2003-05-28</t>
+  </si>
+  <si>
+    <t>2003-05-27</t>
+  </si>
+  <si>
+    <t>2003-05-23</t>
+  </si>
+  <si>
+    <t>2003-05-22</t>
+  </si>
+  <si>
+    <t>2003-05-21</t>
+  </si>
+  <si>
+    <t>2003-05-20</t>
+  </si>
+  <si>
+    <t>2003-05-19</t>
+  </si>
+  <si>
+    <t>2003-05-16</t>
+  </si>
+  <si>
+    <t>2003-05-15</t>
+  </si>
+  <si>
+    <t>2003-05-14</t>
+  </si>
+  <si>
+    <t>2003-05-13</t>
+  </si>
+  <si>
+    <t>2003-05-12</t>
+  </si>
+  <si>
+    <t>2003-05-09</t>
+  </si>
+  <si>
+    <t>2003-05-08</t>
+  </si>
+  <si>
+    <t>2003-05-07</t>
+  </si>
+  <si>
+    <t>2003-05-06</t>
+  </si>
+  <si>
+    <t>2003-05-05</t>
+  </si>
+  <si>
+    <t>2003-05-02</t>
+  </si>
+  <si>
+    <t>2003-05-01</t>
+  </si>
+  <si>
+    <t>2003-04-30</t>
+  </si>
+  <si>
+    <t>2003-04-29</t>
+  </si>
+  <si>
+    <t>2003-04-28</t>
+  </si>
+  <si>
+    <t>2003-04-25</t>
+  </si>
+  <si>
+    <t>2003-04-24</t>
+  </si>
+  <si>
+    <t>2003-04-23</t>
+  </si>
+  <si>
+    <t>2003-04-22</t>
+  </si>
+  <si>
+    <t>2003-04-21</t>
+  </si>
+  <si>
+    <t>2003-04-17</t>
+  </si>
+  <si>
+    <t>2003-04-16</t>
+  </si>
+  <si>
+    <t>2003-04-15</t>
+  </si>
+  <si>
+    <t>2003-04-14</t>
+  </si>
+  <si>
+    <t>2003-04-11</t>
+  </si>
+  <si>
+    <t>2003-04-10</t>
+  </si>
+  <si>
+    <t>2003-04-09</t>
+  </si>
+  <si>
+    <t>2003-04-08</t>
+  </si>
+  <si>
+    <t>2003-04-07</t>
+  </si>
+  <si>
+    <t>2003-04-04</t>
+  </si>
+  <si>
+    <t>2003-04-03</t>
+  </si>
+  <si>
+    <t>2003-04-02</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>2003-03-31</t>
+  </si>
+  <si>
+    <t>2003-03-28</t>
+  </si>
+  <si>
+    <t>2003-03-27</t>
+  </si>
+  <si>
+    <t>2003-03-26</t>
+  </si>
+  <si>
+    <t>2003-03-25</t>
+  </si>
+  <si>
+    <t>2003-03-24</t>
+  </si>
+  <si>
+    <t>2003-03-21</t>
+  </si>
+  <si>
+    <t>2003-03-20</t>
+  </si>
+  <si>
+    <t>2003-03-19</t>
+  </si>
+  <si>
+    <t>2003-03-18</t>
+  </si>
+  <si>
+    <t>2003-03-17</t>
+  </si>
+  <si>
+    <t>2003-03-14</t>
+  </si>
+  <si>
+    <t>2003-03-13</t>
+  </si>
+  <si>
+    <t>2003-03-12</t>
+  </si>
+  <si>
+    <t>2003-03-11</t>
+  </si>
+  <si>
+    <t>2003-03-10</t>
+  </si>
+  <si>
+    <t>2003-03-07</t>
+  </si>
+  <si>
+    <t>2003-03-06</t>
+  </si>
+  <si>
+    <t>2003-03-05</t>
+  </si>
+  <si>
+    <t>2003-03-04</t>
+  </si>
+  <si>
+    <t>2003-03-03</t>
+  </si>
+  <si>
+    <t>2003-02-28</t>
+  </si>
+  <si>
+    <t>2003-02-27</t>
+  </si>
+  <si>
+    <t>2003-02-26</t>
+  </si>
+  <si>
+    <t>2003-02-25</t>
+  </si>
+  <si>
+    <t>2003-02-24</t>
+  </si>
+  <si>
+    <t>2003-02-21</t>
+  </si>
+  <si>
+    <t>2003-02-20</t>
+  </si>
+  <si>
+    <t>2003-02-19</t>
+  </si>
+  <si>
+    <t>2003-02-18</t>
+  </si>
+  <si>
+    <t>2003-02-14</t>
+  </si>
+  <si>
+    <t>2003-02-13</t>
+  </si>
+  <si>
+    <t>2003-02-12</t>
+  </si>
+  <si>
+    <t>2003-02-11</t>
+  </si>
+  <si>
+    <t>2003-02-10</t>
+  </si>
+  <si>
+    <t>2003-02-07</t>
+  </si>
+  <si>
+    <t>2003-02-06</t>
+  </si>
+  <si>
+    <t>2003-02-05</t>
+  </si>
+  <si>
+    <t>2003-02-04</t>
+  </si>
+  <si>
+    <t>2003-02-03</t>
+  </si>
+  <si>
+    <t>2003-01-31</t>
+  </si>
+  <si>
+    <t>2003-01-30</t>
+  </si>
+  <si>
+    <t>2003-01-29</t>
+  </si>
+  <si>
+    <t>2003-01-28</t>
+  </si>
+  <si>
+    <t>2003-01-27</t>
+  </si>
+  <si>
+    <t>2003-01-24</t>
+  </si>
+  <si>
+    <t>2003-01-23</t>
+  </si>
+  <si>
+    <t>2003-01-22</t>
+  </si>
+  <si>
+    <t>2003-01-21</t>
+  </si>
+  <si>
+    <t>2003-01-17</t>
+  </si>
+  <si>
+    <t>2003-01-16</t>
+  </si>
+  <si>
+    <t>2003-01-15</t>
+  </si>
+  <si>
+    <t>2003-01-14</t>
+  </si>
+  <si>
+    <t>2003-01-13</t>
+  </si>
+  <si>
+    <t>2003-01-10</t>
+  </si>
+  <si>
+    <t>2003-01-09</t>
+  </si>
+  <si>
+    <t>2003-01-08</t>
+  </si>
+  <si>
+    <t>2003-01-07</t>
+  </si>
+  <si>
+    <t>2003-01-06</t>
+  </si>
+  <si>
+    <t>2003-01-03</t>
+  </si>
+  <si>
+    <t>2003-01-02</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>2.66</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -1154,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>2.7</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1162,7 +1162,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2.73</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2.76</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1178,7 +1178,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>2.77</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1186,7 +1186,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>2.78</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1194,7 +1194,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>2.78</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1202,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>2.79</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1210,7 +1210,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>2.83</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -1218,7 +1218,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>2.85</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1226,7 +1226,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>2.87</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1234,7 +1234,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>2.85</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1242,7 +1242,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>2.83</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -1250,7 +1250,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>2.84</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -1258,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>2.87</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -1266,7 +1266,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>2.87</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1274,7 +1274,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>2.88</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -1282,7 +1282,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>2.88</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -1290,7 +1290,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>2.89</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1298,7 +1298,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>2.91</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -1306,7 +1306,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>2.91</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -1314,7 +1314,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.93</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -1322,7 +1322,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.94</v>
+        <v>2.4</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -1330,7 +1330,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2.87</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -1338,7 +1338,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>2.91</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -1346,7 +1346,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -1354,7 +1354,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>2.9</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -1362,7 +1362,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>2.86</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -1370,7 +1370,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>2.85</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -1378,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>2.85</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -1386,7 +1386,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>2.87</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -1394,7 +1394,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>2.87</v>
+        <v>2.32</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -1402,7 +1402,7 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>2.81</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -1410,7 +1410,7 @@
         <v>35</v>
       </c>
       <c r="B35">
-        <v>2.82</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -1418,7 +1418,7 @@
         <v>36</v>
       </c>
       <c r="B36">
-        <v>2.82</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -1426,7 +1426,7 @@
         <v>37</v>
       </c>
       <c r="B37">
-        <v>2.87</v>
+        <v>2.49</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -1434,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="B38">
-        <v>2.99</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="39" spans="1:2">
@@ -1442,7 +1442,7 @@
         <v>39</v>
       </c>
       <c r="B39">
-        <v>3.02</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -1450,7 +1450,7 @@
         <v>40</v>
       </c>
       <c r="B40">
-        <v>3.02</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -1458,7 +1458,7 @@
         <v>41</v>
       </c>
       <c r="B41">
-        <v>3.01</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -1466,7 +1466,7 @@
         <v>42</v>
       </c>
       <c r="B42">
-        <v>2.98</v>
+        <v>2.42</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -1474,7 +1474,7 @@
         <v>43</v>
       </c>
       <c r="B43">
-        <v>3</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -1482,7 +1482,7 @@
         <v>44</v>
       </c>
       <c r="B44">
-        <v>2.99</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -1490,7 +1490,7 @@
         <v>45</v>
       </c>
       <c r="B45">
-        <v>3.03</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -1498,7 +1498,7 @@
         <v>46</v>
       </c>
       <c r="B46">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -1506,7 +1506,7 @@
         <v>47</v>
       </c>
       <c r="B47">
-        <v>3.04</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -1514,7 +1514,7 @@
         <v>48</v>
       </c>
       <c r="B48">
-        <v>2.97</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -1522,7 +1522,7 @@
         <v>49</v>
       </c>
       <c r="B49">
-        <v>3</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -1530,7 +1530,7 @@
         <v>50</v>
       </c>
       <c r="B50">
-        <v>2.99</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -1538,7 +1538,7 @@
         <v>51</v>
       </c>
       <c r="B51">
-        <v>2.97</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -1546,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="B52">
-        <v>2.96</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -1554,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="B53">
-        <v>2.86</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -1562,7 +1562,7 @@
         <v>54</v>
       </c>
       <c r="B54">
-        <v>2.84</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -1570,7 +1570,7 @@
         <v>55</v>
       </c>
       <c r="B55">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="56" spans="1:2">
@@ -1578,7 +1578,7 @@
         <v>56</v>
       </c>
       <c r="B56">
-        <v>2.72</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -1586,7 +1586,7 @@
         <v>57</v>
       </c>
       <c r="B57">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -1594,7 +1594,7 @@
         <v>58</v>
       </c>
       <c r="B58">
-        <v>2.67</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -1602,7 +1602,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1610,7 +1610,7 @@
         <v>60</v>
       </c>
       <c r="B60">
-        <v>2.68</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -1618,7 +1618,7 @@
         <v>61</v>
       </c>
       <c r="B61">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -1626,7 +1626,7 @@
         <v>62</v>
       </c>
       <c r="B62">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -1634,7 +1634,7 @@
         <v>63</v>
       </c>
       <c r="B63">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -1642,7 +1642,7 @@
         <v>64</v>
       </c>
       <c r="B64">
-        <v>2.64</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -1650,7 +1650,7 @@
         <v>65</v>
       </c>
       <c r="B65">
-        <v>2.66</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -1658,7 +1658,7 @@
         <v>66</v>
       </c>
       <c r="B66">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -1666,7 +1666,7 @@
         <v>67</v>
       </c>
       <c r="B67">
-        <v>2.65</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -1674,7 +1674,7 @@
         <v>68</v>
       </c>
       <c r="B68">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -1682,7 +1682,7 @@
         <v>69</v>
       </c>
       <c r="B69">
-        <v>2.63</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="70" spans="1:2">
@@ -1690,7 +1690,7 @@
         <v>70</v>
       </c>
       <c r="B70">
-        <v>2.65</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -1698,7 +1698,7 @@
         <v>71</v>
       </c>
       <c r="B71">
-        <v>2.64</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -1706,7 +1706,7 @@
         <v>72</v>
       </c>
       <c r="B72">
-        <v>2.65</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="73" spans="1:2">
@@ -1714,7 +1714,7 @@
         <v>73</v>
       </c>
       <c r="B73">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="74" spans="1:2">
@@ -1722,7 +1722,7 @@
         <v>74</v>
       </c>
       <c r="B74">
-        <v>2.67</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="75" spans="1:2">
@@ -1738,7 +1738,7 @@
         <v>76</v>
       </c>
       <c r="B76">
-        <v>2.73</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="77" spans="1:2">
@@ -1746,7 +1746,7 @@
         <v>77</v>
       </c>
       <c r="B77">
-        <v>2.75</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="78" spans="1:2">
@@ -1754,7 +1754,7 @@
         <v>78</v>
       </c>
       <c r="B78">
-        <v>2.74</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="79" spans="1:2">
@@ -1770,7 +1770,7 @@
         <v>80</v>
       </c>
       <c r="B80">
-        <v>2.76</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -1778,7 +1778,7 @@
         <v>81</v>
       </c>
       <c r="B81">
-        <v>2.72</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -1786,7 +1786,7 @@
         <v>82</v>
       </c>
       <c r="B82">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="83" spans="1:2">
@@ -1794,7 +1794,7 @@
         <v>83</v>
       </c>
       <c r="B83">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -1802,7 +1802,7 @@
         <v>84</v>
       </c>
       <c r="B84">
-        <v>2.78</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -1810,7 +1810,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>2.78</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1818,7 +1818,7 @@
         <v>86</v>
       </c>
       <c r="B86">
-        <v>2.8</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="87" spans="1:2">
@@ -1826,7 +1826,7 @@
         <v>87</v>
       </c>
       <c r="B87">
-        <v>2.8</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="88" spans="1:2">
@@ -1834,7 +1834,7 @@
         <v>88</v>
       </c>
       <c r="B88">
-        <v>2.79</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -1842,7 +1842,7 @@
         <v>89</v>
       </c>
       <c r="B89">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -1850,7 +1850,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>2.82</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -1858,7 +1858,7 @@
         <v>91</v>
       </c>
       <c r="B91">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -1866,7 +1866,7 @@
         <v>92</v>
       </c>
       <c r="B92">
-        <v>2.79</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="93" spans="1:2">
@@ -1874,7 +1874,7 @@
         <v>93</v>
       </c>
       <c r="B93">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="94" spans="1:2">
@@ -1882,7 +1882,7 @@
         <v>94</v>
       </c>
       <c r="B94">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -1890,7 +1890,7 @@
         <v>95</v>
       </c>
       <c r="B95">
-        <v>2.81</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -1898,7 +1898,7 @@
         <v>96</v>
       </c>
       <c r="B96">
-        <v>2.79</v>
+        <v>2.86</v>
       </c>
     </row>
     <row r="97" spans="1:2">
@@ -1906,7 +1906,7 @@
         <v>97</v>
       </c>
       <c r="B97">
-        <v>2.87</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="98" spans="1:2">
@@ -1914,7 +1914,7 @@
         <v>98</v>
       </c>
       <c r="B98">
-        <v>2.91</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -1922,7 +1922,7 @@
         <v>99</v>
       </c>
       <c r="B99">
-        <v>2.97</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -1930,7 +1930,7 @@
         <v>100</v>
       </c>
       <c r="B100">
-        <v>3.02</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="101" spans="1:2">
@@ -1938,7 +1938,7 @@
         <v>101</v>
       </c>
       <c r="B101">
-        <v>3.01</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="102" spans="1:2">
@@ -1946,7 +1946,7 @@
         <v>102</v>
       </c>
       <c r="B102">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="103" spans="1:2">
@@ -1954,7 +1954,7 @@
         <v>103</v>
       </c>
       <c r="B103">
-        <v>3.02</v>
+        <v>2.89</v>
       </c>
     </row>
     <row r="104" spans="1:2">
@@ -1962,7 +1962,7 @@
         <v>104</v>
       </c>
       <c r="B104">
-        <v>3.03</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="105" spans="1:2">
@@ -1970,7 +1970,7 @@
         <v>105</v>
       </c>
       <c r="B105">
-        <v>3.08</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -1978,7 +1978,7 @@
         <v>106</v>
       </c>
       <c r="B106">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
     </row>
     <row r="107" spans="1:2">
@@ -1986,7 +1986,7 @@
         <v>107</v>
       </c>
       <c r="B107">
-        <v>3.1</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -1994,7 +1994,7 @@
         <v>108</v>
       </c>
       <c r="B108">
-        <v>3.09</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="109" spans="1:2">
@@ -2002,7 +2002,7 @@
         <v>109</v>
       </c>
       <c r="B109">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="110" spans="1:2">
@@ -2010,7 +2010,7 @@
         <v>110</v>
       </c>
       <c r="B110">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="111" spans="1:2">
@@ -2018,7 +2018,7 @@
         <v>111</v>
       </c>
       <c r="B111">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="112" spans="1:2">
@@ -2026,7 +2026,7 @@
         <v>112</v>
       </c>
       <c r="B112">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -2034,7 +2034,7 @@
         <v>113</v>
       </c>
       <c r="B113">
-        <v>3.05</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="114" spans="1:2">
@@ -2042,7 +2042,7 @@
         <v>114</v>
       </c>
       <c r="B114">
-        <v>3.1</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="115" spans="1:2">
@@ -2050,7 +2050,7 @@
         <v>115</v>
       </c>
       <c r="B115">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="116" spans="1:2">
@@ -2058,7 +2058,7 @@
         <v>116</v>
       </c>
       <c r="B116">
-        <v>3.11</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="117" spans="1:2">
@@ -2066,7 +2066,7 @@
         <v>117</v>
       </c>
       <c r="B117">
-        <v>3.11</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="118" spans="1:2">
@@ -2074,7 +2074,7 @@
         <v>118</v>
       </c>
       <c r="B118">
-        <v>3.1</v>
+        <v>2.64</v>
       </c>
     </row>
     <row r="119" spans="1:2">
@@ -2082,7 +2082,7 @@
         <v>119</v>
       </c>
       <c r="B119">
-        <v>3.12</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="120" spans="1:2">
@@ -2090,7 +2090,7 @@
         <v>120</v>
       </c>
       <c r="B120">
-        <v>3.13</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="121" spans="1:2">
@@ -2098,7 +2098,7 @@
         <v>121</v>
       </c>
       <c r="B121">
-        <v>3.16</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="122" spans="1:2">
@@ -2106,7 +2106,7 @@
         <v>122</v>
       </c>
       <c r="B122">
-        <v>3.21</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="123" spans="1:2">
@@ -2114,7 +2114,7 @@
         <v>123</v>
       </c>
       <c r="B123">
-        <v>3.21</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -2122,7 +2122,7 @@
         <v>124</v>
       </c>
       <c r="B124">
-        <v>3.17</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="125" spans="1:2">
@@ -2130,7 +2130,7 @@
         <v>125</v>
       </c>
       <c r="B125">
-        <v>3.13</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="126" spans="1:2">
@@ -2138,7 +2138,7 @@
         <v>126</v>
       </c>
       <c r="B126">
-        <v>3.14</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -2146,7 +2146,7 @@
         <v>127</v>
       </c>
       <c r="B127">
-        <v>3.15</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="128" spans="1:2">
@@ -2154,7 +2154,7 @@
         <v>128</v>
       </c>
       <c r="B128">
-        <v>3.14</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -2162,7 +2162,7 @@
         <v>129</v>
       </c>
       <c r="B129">
-        <v>3.14</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="130" spans="1:2">
@@ -2170,7 +2170,7 @@
         <v>130</v>
       </c>
       <c r="B130">
-        <v>3.1</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="131" spans="1:2">
@@ -2178,7 +2178,7 @@
         <v>131</v>
       </c>
       <c r="B131">
-        <v>3.17</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="132" spans="1:2">
@@ -2186,7 +2186,7 @@
         <v>132</v>
       </c>
       <c r="B132">
-        <v>3.13</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="133" spans="1:2">
@@ -2194,7 +2194,7 @@
         <v>133</v>
       </c>
       <c r="B133">
-        <v>3.12</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="134" spans="1:2">
@@ -2202,7 +2202,7 @@
         <v>134</v>
       </c>
       <c r="B134">
-        <v>3.14</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -2210,7 +2210,7 @@
         <v>135</v>
       </c>
       <c r="B135">
-        <v>3.12</v>
+        <v>2.3</v>
       </c>
     </row>
     <row r="136" spans="1:2">
@@ -2218,7 +2218,7 @@
         <v>136</v>
       </c>
       <c r="B136">
-        <v>3.16</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="137" spans="1:2">
@@ -2226,7 +2226,7 @@
         <v>137</v>
       </c>
       <c r="B137">
-        <v>3.16</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -2234,7 +2234,7 @@
         <v>138</v>
       </c>
       <c r="B138">
-        <v>3.14</v>
+        <v>2.15</v>
       </c>
     </row>
     <row r="139" spans="1:2">
@@ -2242,7 +2242,7 @@
         <v>139</v>
       </c>
       <c r="B139">
-        <v>3.19</v>
+        <v>2.11</v>
       </c>
     </row>
     <row r="140" spans="1:2">
@@ -2250,7 +2250,7 @@
         <v>140</v>
       </c>
       <c r="B140">
-        <v>3.21</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="141" spans="1:2">
@@ -2258,7 +2258,7 @@
         <v>141</v>
       </c>
       <c r="B141">
-        <v>3.22</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="142" spans="1:2">
@@ -2266,7 +2266,7 @@
         <v>142</v>
       </c>
       <c r="B142">
-        <v>3.22</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="143" spans="1:2">
@@ -2274,7 +2274,7 @@
         <v>143</v>
       </c>
       <c r="B143">
-        <v>3.22</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="144" spans="1:2">
@@ -2282,7 +2282,7 @@
         <v>144</v>
       </c>
       <c r="B144">
-        <v>3.21</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="145" spans="1:2">
@@ -2290,7 +2290,7 @@
         <v>145</v>
       </c>
       <c r="B145">
-        <v>3.22</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="146" spans="1:2">
@@ -2298,7 +2298,7 @@
         <v>146</v>
       </c>
       <c r="B146">
-        <v>3.23</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -2306,7 +2306,7 @@
         <v>147</v>
       </c>
       <c r="B147">
-        <v>3.24</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="148" spans="1:2">
@@ -2314,7 +2314,7 @@
         <v>148</v>
       </c>
       <c r="B148">
-        <v>3.24</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="149" spans="1:2">
@@ -2322,7 +2322,7 @@
         <v>149</v>
       </c>
       <c r="B149">
-        <v>3.24</v>
+        <v>2.26</v>
       </c>
     </row>
     <row r="150" spans="1:2">
@@ -2330,7 +2330,7 @@
         <v>150</v>
       </c>
       <c r="B150">
-        <v>3.25</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="151" spans="1:2">
@@ -2338,7 +2338,7 @@
         <v>151</v>
       </c>
       <c r="B151">
-        <v>3.28</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="152" spans="1:2">
@@ -2346,7 +2346,7 @@
         <v>152</v>
       </c>
       <c r="B152">
-        <v>3.29</v>
+        <v>2.31</v>
       </c>
     </row>
     <row r="153" spans="1:2">
@@ -2354,7 +2354,7 @@
         <v>153</v>
       </c>
       <c r="B153">
-        <v>3.3</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="154" spans="1:2">
@@ -2362,7 +2362,7 @@
         <v>154</v>
       </c>
       <c r="B154">
-        <v>3.29</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="155" spans="1:2">
@@ -2370,7 +2370,7 @@
         <v>155</v>
       </c>
       <c r="B155">
-        <v>3.31</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -2378,7 +2378,7 @@
         <v>156</v>
       </c>
       <c r="B156">
-        <v>3.32</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="157" spans="1:2">
@@ -2386,7 +2386,7 @@
         <v>157</v>
       </c>
       <c r="B157">
-        <v>3.34</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="158" spans="1:2">
@@ -2394,7 +2394,7 @@
         <v>158</v>
       </c>
       <c r="B158">
-        <v>3.32</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="159" spans="1:2">
@@ -2402,7 +2402,7 @@
         <v>159</v>
       </c>
       <c r="B159">
-        <v>3.33</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="160" spans="1:2">
@@ -2410,7 +2410,7 @@
         <v>160</v>
       </c>
       <c r="B160">
-        <v>3.35</v>
+        <v>2.37</v>
       </c>
     </row>
     <row r="161" spans="1:2">
@@ -2418,7 +2418,7 @@
         <v>161</v>
       </c>
       <c r="B161">
-        <v>3.33</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="162" spans="1:2">
@@ -2426,7 +2426,7 @@
         <v>162</v>
       </c>
       <c r="B162">
-        <v>3.31</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="163" spans="1:2">
@@ -2434,7 +2434,7 @@
         <v>163</v>
       </c>
       <c r="B163">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="164" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>164</v>
       </c>
       <c r="B164">
-        <v>3.34</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>165</v>
       </c>
       <c r="B165">
-        <v>3.33</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="166" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>166</v>
       </c>
       <c r="B166">
-        <v>3.32</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="167" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>167</v>
       </c>
       <c r="B167">
-        <v>3.33</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="168" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>168</v>
       </c>
       <c r="B168">
-        <v>3.36</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="169" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>169</v>
       </c>
       <c r="B169">
-        <v>3.34</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="170" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>170</v>
       </c>
       <c r="B170">
-        <v>3.33</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="171" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>171</v>
       </c>
       <c r="B171">
-        <v>3.33</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>172</v>
       </c>
       <c r="B172">
-        <v>3.33</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="173" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>173</v>
       </c>
       <c r="B173">
-        <v>3.33</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="174" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>174</v>
       </c>
       <c r="B174">
-        <v>3.32</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="175" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>175</v>
       </c>
       <c r="B175">
-        <v>3.33</v>
+        <v>2.78</v>
       </c>
     </row>
     <row r="176" spans="1:2">
@@ -2538,7 +2538,7 @@
         <v>176</v>
       </c>
       <c r="B176">
-        <v>3.32</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="177" spans="1:2">
@@ -2546,7 +2546,7 @@
         <v>177</v>
       </c>
       <c r="B177">
-        <v>3.32</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="178" spans="1:2">
@@ -2554,7 +2554,7 @@
         <v>178</v>
       </c>
       <c r="B178">
-        <v>3.33</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="179" spans="1:2">
@@ -2562,7 +2562,7 @@
         <v>179</v>
       </c>
       <c r="B179">
-        <v>3.34</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="180" spans="1:2">
@@ -2570,7 +2570,7 @@
         <v>180</v>
       </c>
       <c r="B180">
-        <v>3.37</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="181" spans="1:2">
@@ -2578,7 +2578,7 @@
         <v>181</v>
       </c>
       <c r="B181">
-        <v>3.38</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="182" spans="1:2">
@@ -2586,7 +2586,7 @@
         <v>182</v>
       </c>
       <c r="B182">
-        <v>3.38</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="183" spans="1:2">
@@ -2594,7 +2594,7 @@
         <v>183</v>
       </c>
       <c r="B183">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="184" spans="1:2">
@@ -2602,7 +2602,7 @@
         <v>184</v>
       </c>
       <c r="B184">
-        <v>3.39</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -2610,7 +2610,7 @@
         <v>185</v>
       </c>
       <c r="B185">
-        <v>3.4</v>
+        <v>2.71</v>
       </c>
     </row>
     <row r="186" spans="1:2">
@@ -2618,7 +2618,7 @@
         <v>186</v>
       </c>
       <c r="B186">
-        <v>3.47</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="187" spans="1:2">
@@ -2626,7 +2626,7 @@
         <v>187</v>
       </c>
       <c r="B187">
-        <v>3.41</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="188" spans="1:2">
@@ -2634,7 +2634,7 @@
         <v>188</v>
       </c>
       <c r="B188">
-        <v>3.43</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="189" spans="1:2">
@@ -2642,7 +2642,7 @@
         <v>189</v>
       </c>
       <c r="B189">
-        <v>3.47</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="190" spans="1:2">
@@ -2650,7 +2650,7 @@
         <v>190</v>
       </c>
       <c r="B190">
-        <v>3.49</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="191" spans="1:2">
@@ -2658,7 +2658,7 @@
         <v>191</v>
       </c>
       <c r="B191">
-        <v>3.48</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="192" spans="1:2">
@@ -2666,7 +2666,7 @@
         <v>192</v>
       </c>
       <c r="B192">
-        <v>3.47</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -2674,7 +2674,7 @@
         <v>193</v>
       </c>
       <c r="B193">
-        <v>3.48</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -2682,7 +2682,7 @@
         <v>194</v>
       </c>
       <c r="B194">
-        <v>3.49</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="195" spans="1:2">
@@ -2690,7 +2690,7 @@
         <v>195</v>
       </c>
       <c r="B195">
-        <v>3.52</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="196" spans="1:2">
@@ -2698,7 +2698,7 @@
         <v>196</v>
       </c>
       <c r="B196">
-        <v>3.52</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="197" spans="1:2">
@@ -2706,7 +2706,7 @@
         <v>197</v>
       </c>
       <c r="B197">
-        <v>3.54</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="198" spans="1:2">
@@ -2714,7 +2714,7 @@
         <v>198</v>
       </c>
       <c r="B198">
-        <v>3.54</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="199" spans="1:2">
@@ -2722,7 +2722,7 @@
         <v>199</v>
       </c>
       <c r="B199">
-        <v>3.48</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="200" spans="1:2">
@@ -2730,7 +2730,7 @@
         <v>200</v>
       </c>
       <c r="B200">
-        <v>3.48</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="201" spans="1:2">
@@ -2738,7 +2738,7 @@
         <v>201</v>
       </c>
       <c r="B201">
-        <v>3.49</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="202" spans="1:2">
@@ -2746,7 +2746,7 @@
         <v>202</v>
       </c>
       <c r="B202">
-        <v>3.5</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="203" spans="1:2">
@@ -2754,7 +2754,7 @@
         <v>203</v>
       </c>
       <c r="B203">
-        <v>3.5</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="204" spans="1:2">
@@ -2762,7 +2762,7 @@
         <v>204</v>
       </c>
       <c r="B204">
-        <v>3.5</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="205" spans="1:2">
@@ -2770,7 +2770,7 @@
         <v>205</v>
       </c>
       <c r="B205">
-        <v>3.49</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -2778,7 +2778,7 @@
         <v>206</v>
       </c>
       <c r="B206">
-        <v>3.51</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="207" spans="1:2">
@@ -2786,7 +2786,7 @@
         <v>207</v>
       </c>
       <c r="B207">
-        <v>3.49</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="208" spans="1:2">
@@ -2794,7 +2794,7 @@
         <v>208</v>
       </c>
       <c r="B208">
-        <v>3.43</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="209" spans="1:2">
@@ -2802,7 +2802,7 @@
         <v>209</v>
       </c>
       <c r="B209">
-        <v>3.42</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="210" spans="1:2">
@@ -2810,7 +2810,7 @@
         <v>210</v>
       </c>
       <c r="B210">
-        <v>3.41</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="211" spans="1:2">
@@ -2818,7 +2818,7 @@
         <v>211</v>
       </c>
       <c r="B211">
-        <v>3.39</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="212" spans="1:2">
@@ -2826,7 +2826,7 @@
         <v>212</v>
       </c>
       <c r="B212">
-        <v>3.39</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="213" spans="1:2">
@@ -2834,7 +2834,7 @@
         <v>213</v>
       </c>
       <c r="B213">
-        <v>3.39</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -2842,7 +2842,7 @@
         <v>214</v>
       </c>
       <c r="B214">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -2850,7 +2850,7 @@
         <v>215</v>
       </c>
       <c r="B215">
-        <v>3.38</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="216" spans="1:2">
@@ -2858,7 +2858,7 @@
         <v>216</v>
       </c>
       <c r="B216">
-        <v>3.4</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="217" spans="1:2">
@@ -2866,7 +2866,7 @@
         <v>217</v>
       </c>
       <c r="B217">
-        <v>3.41</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="218" spans="1:2">
@@ -2874,7 +2874,7 @@
         <v>218</v>
       </c>
       <c r="B218">
-        <v>3.41</v>
+        <v>2.47</v>
       </c>
     </row>
     <row r="219" spans="1:2">
@@ -2882,7 +2882,7 @@
         <v>219</v>
       </c>
       <c r="B219">
-        <v>3.43</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="220" spans="1:2">
@@ -2890,7 +2890,7 @@
         <v>220</v>
       </c>
       <c r="B220">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="221" spans="1:2">
@@ -2898,7 +2898,7 @@
         <v>221</v>
       </c>
       <c r="B221">
-        <v>3.49</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="222" spans="1:2">
@@ -2906,7 +2906,7 @@
         <v>222</v>
       </c>
       <c r="B222">
-        <v>3.52</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="223" spans="1:2">
@@ -2914,7 +2914,7 @@
         <v>223</v>
       </c>
       <c r="B223">
-        <v>3.51</v>
+        <v>2.51</v>
       </c>
     </row>
     <row r="224" spans="1:2">
@@ -2922,7 +2922,7 @@
         <v>224</v>
       </c>
       <c r="B224">
-        <v>3.5</v>
+        <v>2.53</v>
       </c>
     </row>
     <row r="225" spans="1:2">
@@ -2930,7 +2930,7 @@
         <v>225</v>
       </c>
       <c r="B225">
-        <v>3.49</v>
+        <v>2.54</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -2938,7 +2938,7 @@
         <v>226</v>
       </c>
       <c r="B226">
-        <v>3.49</v>
+        <v>2.55</v>
       </c>
     </row>
     <row r="227" spans="1:2">
@@ -2946,7 +2946,7 @@
         <v>227</v>
       </c>
       <c r="B227">
-        <v>3.49</v>
+        <v>2.57</v>
       </c>
     </row>
     <row r="228" spans="1:2">
@@ -2954,7 +2954,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>3.48</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2962,7 +2962,7 @@
         <v>229</v>
       </c>
       <c r="B229">
-        <v>3.49</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="230" spans="1:2">
@@ -2970,7 +2970,7 @@
         <v>230</v>
       </c>
       <c r="B230">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="231" spans="1:2">
@@ -2978,7 +2978,7 @@
         <v>231</v>
       </c>
       <c r="B231">
-        <v>3.5</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="232" spans="1:2">
@@ -2986,7 +2986,7 @@
         <v>232</v>
       </c>
       <c r="B232">
-        <v>3.49</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="233" spans="1:2">
@@ -2994,7 +2994,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>3.5</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -3002,7 +3002,7 @@
         <v>234</v>
       </c>
       <c r="B234">
-        <v>3.53</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -3010,7 +3010,7 @@
         <v>235</v>
       </c>
       <c r="B235">
-        <v>3.52</v>
+        <v>2.63</v>
       </c>
     </row>
     <row r="236" spans="1:2">
@@ -3018,7 +3018,7 @@
         <v>236</v>
       </c>
       <c r="B236">
-        <v>3.49</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="237" spans="1:2">
@@ -3026,7 +3026,7 @@
         <v>237</v>
       </c>
       <c r="B237">
-        <v>3.46</v>
+        <v>2.66</v>
       </c>
     </row>
     <row r="238" spans="1:2">
@@ -3034,7 +3034,7 @@
         <v>238</v>
       </c>
       <c r="B238">
-        <v>3.46</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="239" spans="1:2">
@@ -3042,7 +3042,7 @@
         <v>239</v>
       </c>
       <c r="B239">
-        <v>3.47</v>
+        <v>2.68</v>
       </c>
     </row>
     <row r="240" spans="1:2">
@@ -3050,7 +3050,7 @@
         <v>240</v>
       </c>
       <c r="B240">
-        <v>3.47</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="241" spans="1:2">
@@ -3058,7 +3058,7 @@
         <v>241</v>
       </c>
       <c r="B241">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="242" spans="1:2">
@@ -3066,7 +3066,7 @@
         <v>242</v>
       </c>
       <c r="B242">
-        <v>3.45</v>
+        <v>2.73</v>
       </c>
     </row>
     <row r="243" spans="1:2">
@@ -3074,7 +3074,7 @@
         <v>243</v>
       </c>
       <c r="B243">
-        <v>3.45</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="244" spans="1:2">
@@ -3082,7 +3082,7 @@
         <v>244</v>
       </c>
       <c r="B244">
-        <v>3.47</v>
+        <v>2.77</v>
       </c>
     </row>
     <row r="245" spans="1:2">
@@ -3090,7 +3090,7 @@
         <v>245</v>
       </c>
       <c r="B245">
-        <v>3.46</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="246" spans="1:2">
@@ -3098,7 +3098,7 @@
         <v>246</v>
       </c>
       <c r="B246">
-        <v>3.47</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="247" spans="1:2">
@@ -3106,7 +3106,7 @@
         <v>247</v>
       </c>
       <c r="B247">
-        <v>3.47</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="248" spans="1:2">
@@ -3114,7 +3114,7 @@
         <v>248</v>
       </c>
       <c r="B248">
-        <v>3.46</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="249" spans="1:2">
@@ -3122,7 +3122,7 @@
         <v>249</v>
       </c>
       <c r="B249">
-        <v>3.49</v>
+        <v>2.79</v>
       </c>
     </row>
     <row r="250" spans="1:2">
@@ -3130,7 +3130,7 @@
         <v>250</v>
       </c>
       <c r="B250">
-        <v>3.46</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="251" spans="1:2">
@@ -3138,7 +3138,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>3.5</v>
+        <v>2.75</v>
       </c>
     </row>
   </sheetData>
